--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -618,13 +618,13 @@
         <v>515</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -643,31 +643,31 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="R2" t="n">
-        <v>651</v>
+        <v>1011</v>
       </c>
       <c r="S2" t="n">
-        <v>10.85</v>
+        <v>16.85</v>
       </c>
       <c r="T2" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="V2" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:05</t>
+          <t>0:08</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0:10:51</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -618,13 +618,13 @@
         <v>515</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -633,41 +633,41 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>1011</v>
+        <v>13619</v>
       </c>
       <c r="S2" t="n">
-        <v>16.85</v>
+        <v>226.98</v>
       </c>
       <c r="T2" t="n">
-        <v>0.28</v>
+        <v>3.78</v>
       </c>
       <c r="U2" t="n">
-        <v>0.14</v>
+        <v>0.76</v>
       </c>
       <c r="V2" t="n">
-        <v>8.4</v>
+        <v>45.4</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:08</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>3:46:59</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -691,140 +691,136 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>Résister</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/société</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="J3" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.3</v>
+        <v>30</v>
       </c>
       <c r="R3" t="n">
-        <v>8728</v>
+        <v>1004</v>
       </c>
       <c r="S3" t="n">
-        <v>145.47</v>
+        <v>16.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2.42</v>
+        <v>0.28</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="V3" t="n">
-        <v>48.5</v>
+        <v>16.7</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:16</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>0:16:44</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>société</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ERROR: Error reading EPUB format</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -834,18 +830,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
@@ -857,50 +857,50 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>93.3</v>
       </c>
       <c r="R4" t="n">
-        <v>131</v>
+        <v>8728</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>145.47</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04</v>
+        <v>2.42</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>48.5</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,21 +581,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -610,64 +610,68 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t xml:space="preserve">Emily Wilde </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="K2" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L2" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="R2" t="n">
-        <v>13619</v>
+        <v>12055</v>
       </c>
       <c r="S2" t="n">
-        <v>226.98</v>
+        <v>200.92</v>
       </c>
       <c r="T2" t="n">
-        <v>3.78</v>
+        <v>3.35</v>
       </c>
       <c r="U2" t="n">
-        <v>0.76</v>
+        <v>1.12</v>
       </c>
       <c r="V2" t="n">
-        <v>45.4</v>
+        <v>67</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>3:46:59</t>
+          <t>3:20:55</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -676,7 +680,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45630</v>
+        <v>45635</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -728,13 +732,13 @@
         <v>151</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -743,41 +747,41 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1004</v>
+        <v>1876</v>
       </c>
       <c r="S3" t="n">
-        <v>16.73</v>
+        <v>31.27</v>
       </c>
       <c r="T3" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="U3" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="V3" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0:16</t>
+          <t>0:15</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0:16:44</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -786,7 +790,7 @@
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -801,21 +805,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -825,82 +829,78 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="K4" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.3</v>
+        <v>72</v>
       </c>
       <c r="R4" t="n">
-        <v>8728</v>
+        <v>19151</v>
       </c>
       <c r="S4" t="n">
-        <v>145.47</v>
+        <v>319.18</v>
       </c>
       <c r="T4" t="n">
-        <v>2.42</v>
+        <v>5.32</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="V4" t="n">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>5:19:11</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Défaillances systèmes</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -939,82 +939,82 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="J5" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.8</v>
+        <v>93.3</v>
       </c>
       <c r="R5" t="n">
-        <v>7599</v>
+        <v>8728</v>
       </c>
       <c r="S5" t="n">
-        <v>126.65</v>
+        <v>145.47</v>
       </c>
       <c r="T5" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>31.7</v>
+        <v>48.5</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2:06:39</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1023,27 +1023,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minimalisme numérique</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1053,26 +1053,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1081,79 +1085,79 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>42.8</v>
       </c>
       <c r="R6" t="n">
-        <v>531</v>
+        <v>7599</v>
       </c>
       <c r="S6" t="n">
-        <v>8.85</v>
+        <v>126.65</v>
       </c>
       <c r="T6" t="n">
-        <v>0.15</v>
+        <v>2.11</v>
       </c>
       <c r="U6" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="V6" t="n">
-        <v>8.800000000000001</v>
+        <v>31.7</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>2:06:39</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tehanu</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1163,34 +1167,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J7" t="n">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1199,42 +1199,42 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.6</v>
+        <v>22</v>
       </c>
       <c r="R7" t="n">
-        <v>17096</v>
+        <v>531</v>
       </c>
       <c r="S7" t="n">
-        <v>284.93</v>
+        <v>8.85</v>
       </c>
       <c r="T7" t="n">
-        <v>4.75</v>
+        <v>0.15</v>
       </c>
       <c r="U7" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="V7" t="n">
-        <v>28.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>4:44:56</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z7" s="2" t="n">
@@ -1242,32 +1242,32 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1277,34 +1277,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Terremer </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="J8" t="n">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L8" t="n">
         <v>100</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1313,42 +1313,42 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.6</v>
+        <v>34.6</v>
       </c>
       <c r="R8" t="n">
-        <v>17648</v>
+        <v>17096</v>
       </c>
       <c r="S8" t="n">
-        <v>294.13</v>
+        <v>284.93</v>
       </c>
       <c r="T8" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="V8" t="n">
-        <v>42</v>
+        <v>28.5</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4:54:08</t>
+          <t>4:44:56</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z8" s="2" t="n">
@@ -1361,27 +1361,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1391,78 +1391,82 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t xml:space="preserve">Les voyageurs </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>636</v>
+        <v>400</v>
       </c>
       <c r="J9" t="n">
-        <v>572</v>
+        <v>382</v>
       </c>
       <c r="K9" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L9" t="n">
         <v>100</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.6</v>
+        <v>54.6</v>
       </c>
       <c r="R9" t="n">
-        <v>20106</v>
+        <v>17648</v>
       </c>
       <c r="S9" t="n">
-        <v>335.1</v>
+        <v>294.13</v>
       </c>
       <c r="T9" t="n">
-        <v>5.58</v>
+        <v>4.9</v>
       </c>
       <c r="U9" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="V9" t="n">
-        <v>37.2</v>
+        <v>42</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>5:35:06</t>
+          <t>4:54:08</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>45608</v>
+        <v>45620</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1471,27 +1475,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1501,24 +1505,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>257</v>
+        <v>636</v>
       </c>
       <c r="J10" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="K10" t="n">
         <v>1.7</v>
@@ -1528,55 +1528,55 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.5</v>
+        <v>63.6</v>
       </c>
       <c r="R10" t="n">
-        <v>8578</v>
+        <v>20106</v>
       </c>
       <c r="S10" t="n">
-        <v>142.97</v>
+        <v>335.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>5.58</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="V10" t="n">
-        <v>23.8</v>
+        <v>37.2</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>5:35:06</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45598</v>
+        <v>45608</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1585,27 +1585,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1615,82 +1615,82 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="K11" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L11" t="n">
         <v>100</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.5</v>
+        <v>41.5</v>
       </c>
       <c r="R11" t="n">
-        <v>22254</v>
+        <v>8578</v>
       </c>
       <c r="S11" t="n">
-        <v>370.9</v>
+        <v>142.97</v>
       </c>
       <c r="T11" t="n">
-        <v>6.18</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="V11" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>2:22:58</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45588</v>
+        <v>45598</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1743,50 +1743,50 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="J12" t="n">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="K12" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.2</v>
+        <v>32.5</v>
       </c>
       <c r="R12" t="n">
-        <v>8572</v>
+        <v>22254</v>
       </c>
       <c r="S12" t="n">
-        <v>142.87</v>
+        <v>370.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>6.18</v>
       </c>
       <c r="U12" t="n">
         <v>0.48</v>
       </c>
       <c r="V12" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1795,16 +1795,16 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>6:10:54</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -1813,27 +1813,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1843,24 +1843,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="J13" t="n">
-        <v>487</v>
+        <v>206</v>
       </c>
       <c r="K13" t="n">
         <v>1.4</v>
@@ -1870,55 +1870,55 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="R13" t="n">
-        <v>21135</v>
+        <v>8572</v>
       </c>
       <c r="S13" t="n">
-        <v>352.25</v>
+        <v>142.87</v>
       </c>
       <c r="T13" t="n">
-        <v>5.87</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
       <c r="V13" t="n">
-        <v>70.40000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>2:22:52</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -1927,17 +1927,17 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1967,72 +1967,72 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>789</v>
+        <v>504</v>
       </c>
       <c r="J14" t="n">
-        <v>779</v>
+        <v>487</v>
       </c>
       <c r="K14" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>129.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>26925</v>
+        <v>21135</v>
       </c>
       <c r="S14" t="n">
-        <v>448.75</v>
+        <v>352.25</v>
       </c>
       <c r="T14" t="n">
-        <v>7.48</v>
+        <v>5.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V14" t="n">
-        <v>74.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>5:52:15</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>45564</v>
+        <v>45568</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2047,11 +2047,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2076,77 +2076,77 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>139</v>
+        <v>789</v>
       </c>
       <c r="J15" t="n">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="K15" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>27</v>
+        <v>129.8</v>
       </c>
       <c r="R15" t="n">
-        <v>5787</v>
+        <v>26925</v>
       </c>
       <c r="S15" t="n">
-        <v>96.45</v>
+        <v>448.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>7.48</v>
       </c>
       <c r="U15" t="n">
-        <v>0.32</v>
+        <v>1.25</v>
       </c>
       <c r="V15" t="n">
-        <v>19.3</v>
+        <v>74.8</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>7:28:45</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2161,21 +2161,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2185,78 +2185,82 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I16" t="n">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="J16" t="n">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="K16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.2</v>
+        <v>27</v>
       </c>
       <c r="R16" t="n">
-        <v>21326</v>
+        <v>5787</v>
       </c>
       <c r="S16" t="n">
-        <v>355.43</v>
+        <v>96.45</v>
       </c>
       <c r="T16" t="n">
-        <v>5.92</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="V16" t="n">
-        <v>22.2</v>
+        <v>19.3</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>1:36:27</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>45544</v>
+        <v>45558</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2265,54 +2269,50 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="J17" t="n">
-        <v>208</v>
+        <v>467</v>
       </c>
       <c r="K17" t="n">
         <v>1.3</v>
@@ -2322,55 +2322,55 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.6</v>
+        <v>29.2</v>
       </c>
       <c r="R17" t="n">
-        <v>9457</v>
+        <v>21326</v>
       </c>
       <c r="S17" t="n">
-        <v>157.62</v>
+        <v>355.43</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>5.92</v>
       </c>
       <c r="U17" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="V17" t="n">
-        <v>31.5</v>
+        <v>22.2</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:55:26</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>45524</v>
+        <v>45544</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2379,17 +2379,17 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2419,63 +2419,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J18" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K18" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.5</v>
+        <v>41.6</v>
       </c>
       <c r="R18" t="n">
-        <v>9673</v>
+        <v>9457</v>
       </c>
       <c r="S18" t="n">
-        <v>161.22</v>
+        <v>157.62</v>
       </c>
       <c r="T18" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="V18" t="n">
-        <v>40.3</v>
+        <v>31.5</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>2:37:37</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>45522</v>
+        <v>45524</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2499,36 +2499,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2537,68 +2537,68 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>823</v>
+        <v>248</v>
       </c>
       <c r="J19" t="n">
-        <v>815</v>
+        <v>234</v>
       </c>
       <c r="K19" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9</v>
+        <v>58.5</v>
       </c>
       <c r="R19" t="n">
-        <v>44807</v>
+        <v>9673</v>
       </c>
       <c r="S19" t="n">
-        <v>746.78</v>
+        <v>161.22</v>
       </c>
       <c r="T19" t="n">
-        <v>12.45</v>
+        <v>2.69</v>
       </c>
       <c r="U19" t="n">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="V19" t="n">
-        <v>93.3</v>
+        <v>40.3</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>2:41:13</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2607,27 +2607,27 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2637,26 +2637,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I20" t="n">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>815</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2665,89 +2669,89 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.5</v>
+        <v>101.9</v>
       </c>
       <c r="R20" t="n">
-        <v>94</v>
+        <v>44807</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>746.78</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03</v>
+        <v>12.45</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01</v>
+        <v>1.56</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8</v>
+        <v>93.3</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>12:26:47</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2757,102 +2761,102 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2867,68 +2871,68 @@
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="J22" t="n">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>114.5</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>16163</v>
+        <v>216</v>
       </c>
       <c r="S22" t="n">
-        <v>269.38</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>4.49</v>
+        <v>0.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.12</v>
+        <v>0.03</v>
       </c>
       <c r="V22" t="n">
-        <v>67.3</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2943,21 +2947,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2967,7 +2971,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2977,68 +2981,68 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>798</v>
+        <v>471</v>
       </c>
       <c r="J23" t="n">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="K23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L23" t="n">
         <v>100</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.8</v>
+        <v>114.5</v>
       </c>
       <c r="R23" t="n">
-        <v>25131</v>
+        <v>16163</v>
       </c>
       <c r="S23" t="n">
-        <v>418.85</v>
+        <v>269.38</v>
       </c>
       <c r="T23" t="n">
-        <v>6.98</v>
+        <v>4.49</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="V23" t="n">
-        <v>41.9</v>
+        <v>67.3</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>6:58:51</t>
+          <t>4:29:23</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3047,27 +3051,27 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3087,25 +3091,25 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>397</v>
+        <v>798</v>
       </c>
       <c r="J24" t="n">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="K24" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -3115,40 +3119,40 @@
         <v>10</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.7</v>
+        <v>76.8</v>
       </c>
       <c r="R24" t="n">
-        <v>15807</v>
+        <v>25131</v>
       </c>
       <c r="S24" t="n">
-        <v>263.45</v>
+        <v>418.85</v>
       </c>
       <c r="T24" t="n">
-        <v>4.39</v>
+        <v>6.98</v>
       </c>
       <c r="U24" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="V24" t="n">
-        <v>26.3</v>
+        <v>41.9</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>4:23:27</t>
+          <t>6:58:51</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3163,21 +3167,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3192,25 +3196,21 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3219,50 +3219,50 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="R25" t="n">
-        <v>108</v>
+        <v>15807</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>263.45</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03</v>
+        <v>4.39</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>26.3</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>4:23:27</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>45480</v>
+        <v>45491</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -3277,21 +3277,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3301,30 +3301,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I26" t="n">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="J26" t="n">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3333,42 +3337,42 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.4</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>11415</v>
+        <v>108</v>
       </c>
       <c r="S26" t="n">
-        <v>190.25</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>3.17</v>
+        <v>0.03</v>
       </c>
       <c r="U26" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="V26" t="n">
-        <v>27.2</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z26" s="2" t="n">
@@ -3381,37 +3385,37 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3421,16 +3425,16 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3439,89 +3443,89 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>46.4</v>
       </c>
       <c r="R27" t="n">
-        <v>74</v>
+        <v>11415</v>
       </c>
       <c r="S27" t="n">
-        <v>1.23</v>
+        <v>190.25</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02</v>
+        <v>3.17</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>27.2</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3531,97 +3535,97 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="J28" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>17475</v>
+        <v>74</v>
       </c>
       <c r="S28" t="n">
-        <v>291.25</v>
+        <v>1.23</v>
       </c>
       <c r="T28" t="n">
-        <v>4.85</v>
+        <v>0.02</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V28" t="n">
-        <v>48.5</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3631,7 +3635,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3641,16 +3645,16 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="K29" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3659,50 +3663,50 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>25</v>
+        <v>72.5</v>
       </c>
       <c r="R29" t="n">
-        <v>865</v>
+        <v>17475</v>
       </c>
       <c r="S29" t="n">
-        <v>14.42</v>
+        <v>291.25</v>
       </c>
       <c r="T29" t="n">
-        <v>0.24</v>
+        <v>4.85</v>
       </c>
       <c r="U29" t="n">
-        <v>0.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4</v>
+        <v>48.5</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>4:51:15</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45464</v>
+        <v>45472</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -3711,27 +3715,27 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3751,68 +3755,68 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>157</v>
+        <v>523</v>
       </c>
       <c r="J30" t="n">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L30" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R30" t="n">
-        <v>7302</v>
+        <v>865</v>
       </c>
       <c r="S30" t="n">
-        <v>121.7</v>
+        <v>14.42</v>
       </c>
       <c r="T30" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="U30" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
       <c r="V30" t="n">
-        <v>40.6</v>
+        <v>14.4</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>0:14:25</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3827,22 +3831,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3862,68 +3865,68 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="J31" t="n">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="K31" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L31" t="n">
         <v>100</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.3</v>
+        <v>51</v>
       </c>
       <c r="R31" t="n">
-        <v>9644</v>
+        <v>7302</v>
       </c>
       <c r="S31" t="n">
-        <v>160.73</v>
+        <v>121.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="U31" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="V31" t="n">
-        <v>26.8</v>
+        <v>40.6</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3938,21 +3941,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3962,82 +3966,78 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="K32" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5</v>
+        <v>44.3</v>
       </c>
       <c r="R32" t="n">
-        <v>267</v>
+        <v>9644</v>
       </c>
       <c r="S32" t="n">
-        <v>4.45</v>
+        <v>160.73</v>
       </c>
       <c r="T32" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="V32" t="n">
-        <v>2.2</v>
+        <v>26.8</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>2:40:44</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>45454</v>
+        <v>45459</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
@@ -4046,27 +4046,27 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -4076,26 +4076,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I33" t="n">
-        <v>86</v>
+        <v>542</v>
       </c>
       <c r="J33" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4104,50 +4108,50 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>82</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>3218</v>
+        <v>267</v>
       </c>
       <c r="S33" t="n">
-        <v>53.63</v>
+        <v>4.45</v>
       </c>
       <c r="T33" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="V33" t="n">
-        <v>53.6</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -4156,37 +4160,37 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4196,20 +4200,20 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J34" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K34" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L34" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4218,42 +4222,42 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.5</v>
+        <v>82</v>
       </c>
       <c r="R34" t="n">
-        <v>2525</v>
+        <v>3218</v>
       </c>
       <c r="S34" t="n">
-        <v>42.08</v>
+        <v>53.63</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="U34" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="V34" t="n">
-        <v>10.5</v>
+        <v>53.6</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:53:38</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z34" s="2" t="n">
@@ -4266,94 +4270,90 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récits du Vieux Royaume </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>744</v>
+        <v>58</v>
       </c>
       <c r="J35" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" t="n">
         <v>1.1</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2597</v>
+        <v>2525</v>
       </c>
       <c r="S35" t="n">
-        <v>43.28</v>
+        <v>42.08</v>
       </c>
       <c r="T35" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="U35" t="n">
         <v>0.18</v>
       </c>
       <c r="V35" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -4362,16 +4362,16 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0:43:17</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4380,60 +4380,64 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t xml:space="preserve">Récits du Vieux Royaume </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I36" t="n">
-        <v>819</v>
+        <v>744</v>
       </c>
       <c r="J36" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4442,42 +4446,42 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.7</v>
+        <v>11.8</v>
       </c>
       <c r="R36" t="n">
-        <v>834</v>
+        <v>2597</v>
       </c>
       <c r="S36" t="n">
-        <v>13.9</v>
+        <v>43.28</v>
       </c>
       <c r="T36" t="n">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="V36" t="n">
-        <v>4.6</v>
+        <v>10.8</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:43:17</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="Z36" s="2" t="n">
@@ -4485,42 +4489,42 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Michael Joseph</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4530,102 +4534,102 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>568</v>
+        <v>819</v>
       </c>
       <c r="J37" t="n">
-        <v>546</v>
+        <v>17</v>
       </c>
       <c r="K37" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="P37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>78</v>
+        <v>5.7</v>
       </c>
       <c r="R37" t="n">
-        <v>19208</v>
+        <v>834</v>
       </c>
       <c r="S37" t="n">
-        <v>320.13</v>
+        <v>13.9</v>
       </c>
       <c r="T37" t="n">
-        <v>5.34</v>
+        <v>0.23</v>
       </c>
       <c r="U37" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="V37" t="n">
-        <v>45.7</v>
+        <v>4.6</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>5:20:08</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>45445</v>
+        <v>45450</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4640,16 +4644,16 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="K38" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -4658,50 +4662,50 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>19208</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08</v>
+        <v>320.13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1</v>
+        <v>45.7</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>5:20:08</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4716,26 +4720,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4750,20 +4754,20 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="J39" t="n">
-        <v>447</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1.7</v>
+        <v>12.5</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4772,42 +4776,42 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>15965</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>266.08</v>
+        <v>0.08</v>
       </c>
       <c r="T39" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>88.7</v>
+        <v>0.1</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="Z39" s="2" t="n">
@@ -4826,21 +4830,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4860,10 +4864,10 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>766</v>
+        <v>456</v>
       </c>
       <c r="J40" t="n">
-        <v>741</v>
+        <v>447</v>
       </c>
       <c r="K40" t="n">
         <v>1.7</v>
@@ -4873,55 +4877,55 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.3</v>
+        <v>149</v>
       </c>
       <c r="R40" t="n">
-        <v>26517</v>
+        <v>15965</v>
       </c>
       <c r="S40" t="n">
-        <v>441.95</v>
+        <v>266.08</v>
       </c>
       <c r="T40" t="n">
-        <v>7.37</v>
+        <v>4.43</v>
       </c>
       <c r="U40" t="n">
-        <v>0.82</v>
+        <v>1.48</v>
       </c>
       <c r="V40" t="n">
-        <v>49.1</v>
+        <v>88.7</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>7:21:57</t>
+          <t>4:26:05</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -4936,26 +4940,26 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4965,77 +4969,73 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois corps </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="J41" t="n">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="K41" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L41" t="n">
         <v>100</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P41" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>59</v>
+        <v>82.3</v>
       </c>
       <c r="R41" t="n">
-        <v>30613</v>
+        <v>26517</v>
       </c>
       <c r="S41" t="n">
-        <v>510.22</v>
+        <v>441.95</v>
       </c>
       <c r="T41" t="n">
-        <v>8.5</v>
+        <v>7.37</v>
       </c>
       <c r="U41" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="V41" t="n">
-        <v>42.5</v>
+        <v>49.1</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>8:30:13</t>
+          <t>7:21:57</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>45427</v>
+        <v>45436</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -5050,26 +5050,26 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>Trois corps – 01 – Le problème à trois corps</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Vance Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de Tschaï </t>
+          <t xml:space="preserve">Trois corps </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5088,68 +5088,68 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>266</v>
+        <v>745</v>
       </c>
       <c r="J42" t="n">
-        <v>260</v>
+        <v>708</v>
       </c>
       <c r="K42" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L42" t="n">
         <v>100</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.3</v>
+        <v>59</v>
       </c>
       <c r="R42" t="n">
-        <v>13755</v>
+        <v>30613</v>
       </c>
       <c r="S42" t="n">
-        <v>229.25</v>
+        <v>510.22</v>
       </c>
       <c r="T42" t="n">
-        <v>3.82</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="V42" t="n">
-        <v>38.2</v>
+        <v>42.5</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0:38</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>3:49:15</t>
+          <t>8:30:13</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>45415</v>
+        <v>45427</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -5164,22 +5164,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mervyn Peake
-Patrick Reumaux</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>Vance Jack</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5189,12 +5188,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gormenghast </t>
+          <t xml:space="preserve">Cycle de Tschaï </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5203,16 +5202,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>883</v>
+        <v>266</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -5221,50 +5220,50 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>43.3</v>
       </c>
       <c r="R43" t="n">
-        <v>14</v>
+        <v>13755</v>
       </c>
       <c r="S43" t="n">
-        <v>0.23</v>
+        <v>229.25</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2</v>
+        <v>38.2</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:38</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>3:49:15</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>45410</v>
+        <v>45415</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -5273,27 +5272,28 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>King Stephen</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5303,30 +5303,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t xml:space="preserve">Gormenghast </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I44" t="n">
-        <v>429</v>
+        <v>883</v>
       </c>
       <c r="J44" t="n">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5335,42 +5339,42 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.9</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>17983</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>299.72</v>
+        <v>0.23</v>
       </c>
       <c r="T44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>42.8</v>
+        <v>0.2</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>4:59:43</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Z44" s="2" t="n">
@@ -5383,27 +5387,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>King Stephen</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5413,7 +5417,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5423,68 +5427,68 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>572</v>
+        <v>429</v>
       </c>
       <c r="J45" t="n">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="K45" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L45" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P45" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.2</v>
+        <v>59.9</v>
       </c>
       <c r="R45" t="n">
-        <v>22707</v>
+        <v>17983</v>
       </c>
       <c r="S45" t="n">
-        <v>378.45</v>
+        <v>299.72</v>
       </c>
       <c r="T45" t="n">
-        <v>6.31</v>
+        <v>5</v>
       </c>
       <c r="U45" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="V45" t="n">
-        <v>29.1</v>
+        <v>42.8</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0:29</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>6:18:27</t>
+          <t>4:59:43</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -5493,37 +5497,37 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5533,68 +5537,68 @@
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>888</v>
+        <v>572</v>
       </c>
       <c r="J46" t="n">
-        <v>870</v>
+        <v>484</v>
       </c>
       <c r="K46" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P46" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.5</v>
+        <v>37.2</v>
       </c>
       <c r="R46" t="n">
-        <v>37279</v>
+        <v>22707</v>
       </c>
       <c r="S46" t="n">
-        <v>621.3200000000001</v>
+        <v>378.45</v>
       </c>
       <c r="T46" t="n">
-        <v>10.36</v>
+        <v>6.31</v>
       </c>
       <c r="U46" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="V46" t="n">
-        <v>31.1</v>
+        <v>29.1</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:29</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>10:21:19</t>
+          <t>6:18:27</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5603,32 +5607,32 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>la route</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5643,68 +5647,68 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>385</v>
+        <v>888</v>
       </c>
       <c r="J47" t="n">
-        <v>383</v>
+        <v>870</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L47" t="n">
         <v>100</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q47" t="n">
-        <v>191.5</v>
+        <v>43.5</v>
       </c>
       <c r="R47" t="n">
-        <v>11242</v>
+        <v>37279</v>
       </c>
       <c r="S47" t="n">
-        <v>187.37</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="T47" t="n">
-        <v>3.12</v>
+        <v>10.36</v>
       </c>
       <c r="U47" t="n">
-        <v>1.56</v>
+        <v>0.52</v>
       </c>
       <c r="V47" t="n">
-        <v>93.7</v>
+        <v>31.1</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>3:07:22</t>
+          <t>10:21:19</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5719,21 +5723,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5753,68 +5757,68 @@
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J48" t="n">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>10.2</v>
+        <v>191.5</v>
       </c>
       <c r="R48" t="n">
-        <v>2566</v>
+        <v>11242</v>
       </c>
       <c r="S48" t="n">
-        <v>42.77</v>
+        <v>187.37</v>
       </c>
       <c r="T48" t="n">
-        <v>0.71</v>
+        <v>3.12</v>
       </c>
       <c r="U48" t="n">
-        <v>0.18</v>
+        <v>1.56</v>
       </c>
       <c r="V48" t="n">
-        <v>10.7</v>
+        <v>93.7</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0:42:46</t>
+          <t>3:07:22</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -5829,21 +5833,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>Ravage</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5853,82 +5857,78 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les livres de la terre fracturée </t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>759</v>
+        <v>330</v>
       </c>
       <c r="J49" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1636</v>
+        <v>2566</v>
       </c>
       <c r="S49" t="n">
-        <v>27.27</v>
+        <v>42.77</v>
       </c>
       <c r="T49" t="n">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="U49" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="V49" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>0:42:46</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -5937,27 +5937,27 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>La cinquième saison</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora K. Jemisin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora Jemisin</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le troupeau aveugle </t>
+          <t xml:space="preserve">Les livres de la terre fracturée </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5981,68 +5981,68 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>382</v>
+        <v>759</v>
       </c>
       <c r="J50" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K50" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R50" t="n">
-        <v>610</v>
+        <v>1636</v>
       </c>
       <c r="S50" t="n">
-        <v>10.17</v>
+        <v>27.27</v>
       </c>
       <c r="T50" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="V50" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0:10:10</t>
+          <t>0:27:16</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -6051,27 +6051,27 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>Le troupeau aveugle, 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6081,35 +6081,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t xml:space="preserve">Le troupeau aveugle </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I51" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="J51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -6119,191 +6123,191 @@
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R51" t="n">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="S51" t="n">
-        <v>12.5</v>
+        <v>10.17</v>
       </c>
       <c r="T51" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="V51" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:10:10</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>histoire</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>28</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>400</v>
+      </c>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>750</v>
+      </c>
+      <c r="S52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0:12:30</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>histoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>26</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>337</v>
-      </c>
-      <c r="J52" t="n">
-        <v>329</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>100</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>8</v>
-      </c>
-      <c r="P52" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>16650</v>
-      </c>
-      <c r="S52" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="T52" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V52" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0:34</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>4:37:30</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>25</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -6313,97 +6317,97 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>476</v>
+        <v>337</v>
       </c>
       <c r="J53" t="n">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="K53" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L53" t="n">
         <v>100</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q53" t="n">
-        <v>104.2</v>
+        <v>41.1</v>
       </c>
       <c r="R53" t="n">
-        <v>14530</v>
+        <v>16650</v>
       </c>
       <c r="S53" t="n">
-        <v>242.17</v>
+        <v>277.5</v>
       </c>
       <c r="T53" t="n">
-        <v>4.04</v>
+        <v>4.62</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="V53" t="n">
-        <v>60.5</v>
+        <v>34.7</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>1:00</t>
+          <t>0:34</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>4:02:10</t>
+          <t>4:37:30</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z53" s="2" t="n">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Red Rising</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6413,7 +6417,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6423,97 +6427,97 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>636</v>
+        <v>476</v>
       </c>
       <c r="J54" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="K54" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L54" t="n">
         <v>100</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>125</v>
+        <v>104.2</v>
       </c>
       <c r="R54" t="n">
-        <v>26174</v>
+        <v>14530</v>
       </c>
       <c r="S54" t="n">
-        <v>436.23</v>
+        <v>242.17</v>
       </c>
       <c r="T54" t="n">
-        <v>7.27</v>
+        <v>4.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>87.2</v>
+        <v>60.5</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>1:27</t>
+          <t>1:00</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>7:16:14</t>
+          <t>4:02:10</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z54" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Il n'y a pas de parent parfait</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6523,7 +6527,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -6533,97 +6537,97 @@
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>445</v>
+        <v>636</v>
       </c>
       <c r="J55" t="n">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="K55" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L55" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>34.6</v>
+        <v>125</v>
       </c>
       <c r="R55" t="n">
-        <v>12721</v>
+        <v>26174</v>
       </c>
       <c r="S55" t="n">
-        <v>212.02</v>
+        <v>436.23</v>
       </c>
       <c r="T55" t="n">
-        <v>3.53</v>
+        <v>7.27</v>
       </c>
       <c r="U55" t="n">
-        <v>0.44</v>
+        <v>1.45</v>
       </c>
       <c r="V55" t="n">
-        <v>26.5</v>
+        <v>87.2</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>1:27</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>3:32:01</t>
+          <t>7:16:14</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z55" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6633,7 +6637,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6643,87 +6647,87 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>1332</v>
+        <v>445</v>
       </c>
       <c r="J56" t="n">
-        <v>1127</v>
+        <v>277</v>
       </c>
       <c r="K56" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L56" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P56" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>66.3</v>
+        <v>34.6</v>
       </c>
       <c r="R56" t="n">
-        <v>47893</v>
+        <v>12721</v>
       </c>
       <c r="S56" t="n">
-        <v>798.22</v>
+        <v>212.02</v>
       </c>
       <c r="T56" t="n">
-        <v>13.3</v>
+        <v>3.53</v>
       </c>
       <c r="U56" t="n">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="V56" t="n">
-        <v>47</v>
+        <v>26.5</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0:46</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>13:18:13</t>
+          <t>3:32:01</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z56" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hypérion v1.1</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6748,77 +6752,73 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Cantos d'Hypérion </t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1034</v>
+        <v>1332</v>
       </c>
       <c r="J57" t="n">
-        <v>1007</v>
+        <v>1127</v>
       </c>
       <c r="K57" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q57" t="n">
-        <v>62.9</v>
+        <v>66.3</v>
       </c>
       <c r="R57" t="n">
-        <v>45693</v>
+        <v>47893</v>
       </c>
       <c r="S57" t="n">
-        <v>761.55</v>
+        <v>798.22</v>
       </c>
       <c r="T57" t="n">
-        <v>12.69</v>
+        <v>13.3</v>
       </c>
       <c r="U57" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="V57" t="n">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>0:47</t>
+          <t>0:46</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>12:41:33</t>
+          <t>13:18:13</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z57" s="2" t="n">
-        <v>45319</v>
+        <v>45344</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -6833,141 +6833,145 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Hypérion v1.1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t xml:space="preserve">Les Cantos d'Hypérion </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I58" t="n">
-        <v>299</v>
+        <v>1034</v>
       </c>
       <c r="J58" t="n">
-        <v>263</v>
+        <v>1007</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L58" t="n">
         <v>100</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P58" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q58" t="n">
-        <v>43.8</v>
+        <v>62.9</v>
       </c>
       <c r="R58" t="n">
-        <v>16035</v>
+        <v>45693</v>
       </c>
       <c r="S58" t="n">
-        <v>267.25</v>
+        <v>761.55</v>
       </c>
       <c r="T58" t="n">
-        <v>4.45</v>
+        <v>12.69</v>
       </c>
       <c r="U58" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="V58" t="n">
-        <v>44.5</v>
+        <v>47.6</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>0:44</t>
+          <t>0:47</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>4:27:15</t>
+          <t>12:41:33</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="Z58" s="2" t="n">
-        <v>45305</v>
+        <v>45319</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>Your Brain’s Not Broken</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6977,59 +6981,59 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>675</v>
+        <v>299</v>
       </c>
       <c r="J59" t="n">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="K59" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="n">
-        <v>52.2</v>
+        <v>43.8</v>
       </c>
       <c r="R59" t="n">
-        <v>18029</v>
+        <v>16035</v>
       </c>
       <c r="S59" t="n">
-        <v>300.48</v>
+        <v>267.25</v>
       </c>
       <c r="T59" t="n">
-        <v>5.01</v>
+        <v>4.45</v>
       </c>
       <c r="U59" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="V59" t="n">
-        <v>37.6</v>
+        <v>44.5</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:44</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>4:27:15</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7038,7 +7042,7 @@
         </is>
       </c>
       <c r="Z59" s="2" t="n">
-        <v>45300</v>
+        <v>45305</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -7047,37 +7051,37 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -7087,102 +7091,102 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="J60" t="n">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="K60" t="n">
         <v>1.4</v>
       </c>
       <c r="L60" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q60" t="n">
-        <v>28.9</v>
+        <v>52.2</v>
       </c>
       <c r="R60" t="n">
-        <v>12240</v>
+        <v>18029</v>
       </c>
       <c r="S60" t="n">
-        <v>204</v>
+        <v>300.48</v>
       </c>
       <c r="T60" t="n">
-        <v>3.4</v>
+        <v>5.01</v>
       </c>
       <c r="U60" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="V60" t="n">
-        <v>20.4</v>
+        <v>37.6</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>5:00:29</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z60" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7197,64 +7201,64 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>809</v>
+        <v>449</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="K61" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>28.9</v>
       </c>
       <c r="R61" t="n">
-        <v>22</v>
+        <v>12240</v>
       </c>
       <c r="S61" t="n">
-        <v>0.37</v>
+        <v>204</v>
       </c>
       <c r="T61" t="n">
-        <v>0.01</v>
+        <v>3.4</v>
       </c>
       <c r="U61" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4</v>
+        <v>20.4</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:20</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>3:24:00</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z61" s="2" t="n">
@@ -7273,26 +7277,26 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7307,25 +7311,25 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>68</v>
+        <v>809</v>
       </c>
       <c r="J62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -7335,40 +7339,40 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="S62" t="n">
-        <v>6.47</v>
+        <v>0.37</v>
       </c>
       <c r="T62" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="U62" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="V62" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="Z62" s="2" t="n">
-        <v>45257</v>
+        <v>45299</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -7383,26 +7387,26 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Le crime de l'Orient-Express</t>
+          <t>Let's Get Together</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Christie, Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Christie Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7412,29 +7416,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">l'Orient </t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="J63" t="n">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7443,42 +7443,42 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>47.1</v>
+        <v>8</v>
       </c>
       <c r="R63" t="n">
-        <v>13191</v>
+        <v>388</v>
       </c>
       <c r="S63" t="n">
-        <v>219.85</v>
+        <v>6.47</v>
       </c>
       <c r="T63" t="n">
-        <v>3.66</v>
+        <v>0.11</v>
       </c>
       <c r="U63" t="n">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="V63" t="n">
-        <v>31.4</v>
+        <v>6.5</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>3:39:51</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="Z63" s="2" t="n">
@@ -7490,6 +7490,120 @@
         </is>
       </c>
       <c r="AB63" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Le crime de l'Orient-Express</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Christie, Agatha</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Christie Agatha</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">l'Orient </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>349</v>
+      </c>
+      <c r="J64" t="n">
+        <v>330</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>13191</v>
+      </c>
+      <c r="S64" t="n">
+        <v>219.85</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V64" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>0:31</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>3:39:51</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
         <is>
           <t>SF</t>
         </is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -622,13 +622,13 @@
         <v>538</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>513</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L2" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -637,41 +637,41 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
       <c r="Q2" t="n">
-        <v>95</v>
+        <v>128.2</v>
       </c>
       <c r="R2" t="n">
-        <v>12055</v>
+        <v>20430</v>
       </c>
       <c r="S2" t="n">
-        <v>200.92</v>
+        <v>340.5</v>
       </c>
       <c r="T2" t="n">
-        <v>3.35</v>
+        <v>5.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="V2" t="n">
-        <v>67</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>1:25</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>3:20:55</t>
+          <t>5:40:30</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,21 +581,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L’Encyclopédie féerique d’Emily Wilde</t>
+          <t>Superméchant débutant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -605,73 +605,69 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily Wilde </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="J2" t="n">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="O2" t="n">
         <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.2</v>
+        <v>64</v>
       </c>
       <c r="R2" t="n">
-        <v>20430</v>
+        <v>13705</v>
       </c>
       <c r="S2" t="n">
-        <v>340.5</v>
+        <v>228.42</v>
       </c>
       <c r="T2" t="n">
-        <v>5.68</v>
+        <v>3.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.42</v>
+        <v>0.76</v>
       </c>
       <c r="V2" t="n">
-        <v>85.09999999999999</v>
+        <v>45.7</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1:25</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5:40:30</t>
+          <t>3:48:25</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -680,7 +676,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45636</v>
+        <v>45655</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -689,37 +685,37 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Résister</t>
+          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>Tj Klune</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>Klune</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>non-fiction/société</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -729,97 +725,97 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>151</v>
+        <v>699</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="K3" t="n">
         <v>1.9</v>
       </c>
       <c r="L3" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.5</v>
+        <v>138</v>
       </c>
       <c r="R3" t="n">
-        <v>1876</v>
+        <v>21762</v>
       </c>
       <c r="S3" t="n">
-        <v>31.27</v>
+        <v>362.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0.52</v>
+        <v>6.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0.26</v>
+        <v>1.21</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>72.5</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0:15</t>
+          <t>1:12</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0:31:16</t>
+          <t>6:02:42</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45632</v>
+        <v>45651</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>société</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
+          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -834,64 +830,68 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t xml:space="preserve">Encyclopédie féerique </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="J4" t="n">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O4" t="n">
         <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>72</v>
+        <v>58.8</v>
       </c>
       <c r="R4" t="n">
-        <v>19151</v>
+        <v>23592</v>
       </c>
       <c r="S4" t="n">
-        <v>319.18</v>
+        <v>393.2</v>
       </c>
       <c r="T4" t="n">
-        <v>5.32</v>
+        <v>6.55</v>
       </c>
       <c r="U4" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="V4" t="n">
-        <v>45.6</v>
+        <v>49.2</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>5:19:11</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45632</v>
+        <v>45645</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -915,21 +915,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -939,82 +939,82 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Emily Wilde </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>291</v>
+        <v>538</v>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>513</v>
       </c>
       <c r="K5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.3</v>
+        <v>85.5</v>
       </c>
       <c r="R5" t="n">
-        <v>8728</v>
+        <v>20584</v>
       </c>
       <c r="S5" t="n">
-        <v>145.47</v>
+        <v>343.07</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>5.72</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="V5" t="n">
-        <v>48.5</v>
+        <v>57.2</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:57</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>5:43:04</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45625</v>
+        <v>45645</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1023,27 +1023,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Défaillances systèmes</t>
+          <t>Blackwater T6 : Pluie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1053,82 +1053,82 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="J6" t="n">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L6" t="n">
         <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.8</v>
+        <v>273</v>
       </c>
       <c r="R6" t="n">
-        <v>7599</v>
+        <v>9999</v>
       </c>
       <c r="S6" t="n">
-        <v>126.65</v>
+        <v>166.65</v>
       </c>
       <c r="T6" t="n">
-        <v>2.11</v>
+        <v>2.78</v>
       </c>
       <c r="U6" t="n">
-        <v>0.53</v>
+        <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>31.7</v>
+        <v>166.6</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>2:46</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2:06:39</t>
+          <t>2:46:39</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>45623</v>
+        <v>45637</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1137,37 +1137,37 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Minimalisme numérique</t>
+          <t>Résister</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>non-fiction/société</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1177,68 +1177,68 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>22</v>
       </c>
       <c r="R7" t="n">
-        <v>531</v>
+        <v>2246</v>
       </c>
       <c r="S7" t="n">
-        <v>8.85</v>
+        <v>37.43</v>
       </c>
       <c r="T7" t="n">
-        <v>0.15</v>
+        <v>0.62</v>
       </c>
       <c r="U7" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="V7" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:12</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>0:37:26</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>45620</v>
+        <v>45637</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1247,27 +1247,27 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>société</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tehanu</t>
+          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1282,77 +1282,73 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="J8" t="n">
-        <v>346</v>
+        <v>504</v>
       </c>
       <c r="K8" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L8" t="n">
         <v>100</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>34.6</v>
+        <v>72</v>
       </c>
       <c r="R8" t="n">
-        <v>17096</v>
+        <v>19151</v>
       </c>
       <c r="S8" t="n">
-        <v>284.93</v>
+        <v>319.18</v>
       </c>
       <c r="T8" t="n">
-        <v>4.75</v>
+        <v>5.32</v>
       </c>
       <c r="U8" t="n">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="V8" t="n">
-        <v>28.5</v>
+        <v>45.6</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4:44:56</t>
+          <t>5:19:11</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>45620</v>
+        <v>45632</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1367,21 +1363,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1391,82 +1387,82 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="J9" t="n">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="L9" t="n">
         <v>100</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.6</v>
+        <v>93.3</v>
       </c>
       <c r="R9" t="n">
-        <v>17648</v>
+        <v>8728</v>
       </c>
       <c r="S9" t="n">
-        <v>294.13</v>
+        <v>145.47</v>
       </c>
       <c r="T9" t="n">
-        <v>4.9</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>42</v>
+        <v>48.5</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4:54:08</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1475,27 +1471,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1505,78 +1501,82 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>636</v>
+        <v>175</v>
       </c>
       <c r="J10" t="n">
-        <v>572</v>
+        <v>171</v>
       </c>
       <c r="K10" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.6</v>
+        <v>42.8</v>
       </c>
       <c r="R10" t="n">
-        <v>20106</v>
+        <v>7599</v>
       </c>
       <c r="S10" t="n">
-        <v>335.1</v>
+        <v>126.65</v>
       </c>
       <c r="T10" t="n">
-        <v>5.58</v>
+        <v>2.11</v>
       </c>
       <c r="U10" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="V10" t="n">
-        <v>37.2</v>
+        <v>31.7</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>5:35:06</t>
+          <t>2:06:39</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45608</v>
+        <v>45623</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1585,27 +1585,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1615,111 +1615,107 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="J11" t="n">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.5</v>
+        <v>22</v>
       </c>
       <c r="R11" t="n">
-        <v>8578</v>
+        <v>531</v>
       </c>
       <c r="S11" t="n">
-        <v>142.97</v>
+        <v>8.85</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>0.15</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="V11" t="n">
-        <v>23.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45598</v>
+        <v>45620</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1729,61 +1725,61 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Terremer </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.5</v>
+        <v>34.6</v>
       </c>
       <c r="R12" t="n">
-        <v>22254</v>
+        <v>17096</v>
       </c>
       <c r="S12" t="n">
-        <v>370.9</v>
+        <v>284.93</v>
       </c>
       <c r="T12" t="n">
-        <v>6.18</v>
+        <v>4.75</v>
       </c>
       <c r="U12" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="V12" t="n">
         <v>28.5</v>
@@ -1795,16 +1791,16 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>4:44:56</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>45588</v>
+        <v>45620</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -1813,27 +1809,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1843,82 +1839,82 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="J13" t="n">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="K13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.2</v>
+        <v>54.6</v>
       </c>
       <c r="R13" t="n">
-        <v>8572</v>
+        <v>17648</v>
       </c>
       <c r="S13" t="n">
-        <v>142.87</v>
+        <v>294.13</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>4.9</v>
       </c>
       <c r="U13" t="n">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="V13" t="n">
-        <v>28.6</v>
+        <v>42</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>4:54:08</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45573</v>
+        <v>45620</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -1927,27 +1923,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1957,82 +1953,78 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>504</v>
+        <v>636</v>
       </c>
       <c r="J14" t="n">
-        <v>487</v>
+        <v>572</v>
       </c>
       <c r="K14" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="R14" t="n">
-        <v>21135</v>
+        <v>20106</v>
       </c>
       <c r="S14" t="n">
-        <v>352.25</v>
+        <v>335.1</v>
       </c>
       <c r="T14" t="n">
-        <v>5.87</v>
+        <v>5.58</v>
       </c>
       <c r="U14" t="n">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="V14" t="n">
-        <v>70.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>5:35:06</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>45568</v>
+        <v>45608</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2041,27 +2033,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2071,24 +2063,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>789</v>
+        <v>257</v>
       </c>
       <c r="J15" t="n">
-        <v>779</v>
+        <v>249</v>
       </c>
       <c r="K15" t="n">
         <v>1.7</v>
@@ -2098,55 +2090,55 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P15" t="n">
         <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>129.8</v>
+        <v>41.5</v>
       </c>
       <c r="R15" t="n">
-        <v>26925</v>
+        <v>8578</v>
       </c>
       <c r="S15" t="n">
-        <v>448.75</v>
+        <v>142.97</v>
       </c>
       <c r="T15" t="n">
-        <v>7.48</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
       <c r="V15" t="n">
-        <v>74.8</v>
+        <v>23.8</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>2:22:58</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45564</v>
+        <v>45598</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2155,17 +2147,17 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2190,77 +2182,77 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="J16" t="n">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="K16" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q16" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="R16" t="n">
-        <v>5787</v>
+        <v>22254</v>
       </c>
       <c r="S16" t="n">
-        <v>96.45</v>
+        <v>370.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>6.18</v>
       </c>
       <c r="U16" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="V16" t="n">
-        <v>19.3</v>
+        <v>28.5</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>6:10:54</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>45558</v>
+        <v>45588</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2275,21 +2267,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2299,78 +2291,82 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I17" t="n">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="J17" t="n">
-        <v>467</v>
+        <v>206</v>
       </c>
       <c r="K17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L17" t="n">
         <v>100</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.2</v>
+        <v>41.2</v>
       </c>
       <c r="R17" t="n">
-        <v>21326</v>
+        <v>8572</v>
       </c>
       <c r="S17" t="n">
-        <v>355.43</v>
+        <v>142.87</v>
       </c>
       <c r="T17" t="n">
-        <v>5.92</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="V17" t="n">
-        <v>22.2</v>
+        <v>28.6</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>2:22:52</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>45544</v>
+        <v>45573</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2379,42 +2375,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2423,68 +2419,68 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>225</v>
+        <v>504</v>
       </c>
       <c r="J18" t="n">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="K18" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.6</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>9457</v>
+        <v>21135</v>
       </c>
       <c r="S18" t="n">
-        <v>157.62</v>
+        <v>352.25</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>5.87</v>
       </c>
       <c r="U18" t="n">
-        <v>0.53</v>
+        <v>1.17</v>
       </c>
       <c r="V18" t="n">
-        <v>31.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:52:15</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>45524</v>
+        <v>45568</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2493,27 +2489,27 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2523,12 +2519,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2537,68 +2533,68 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>248</v>
+        <v>789</v>
       </c>
       <c r="J19" t="n">
-        <v>234</v>
+        <v>779</v>
       </c>
       <c r="K19" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.5</v>
+        <v>129.8</v>
       </c>
       <c r="R19" t="n">
-        <v>9673</v>
+        <v>26925</v>
       </c>
       <c r="S19" t="n">
-        <v>161.22</v>
+        <v>448.75</v>
       </c>
       <c r="T19" t="n">
-        <v>2.69</v>
+        <v>7.48</v>
       </c>
       <c r="U19" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="V19" t="n">
-        <v>40.3</v>
+        <v>74.8</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>7:28:45</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>45522</v>
+        <v>45564</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2607,32 +2603,32 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2642,77 +2638,77 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>823</v>
+        <v>139</v>
       </c>
       <c r="J20" t="n">
-        <v>815</v>
+        <v>135</v>
       </c>
       <c r="K20" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="O20" t="n">
         <v>9</v>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.9</v>
+        <v>27</v>
       </c>
       <c r="R20" t="n">
-        <v>44807</v>
+        <v>5787</v>
       </c>
       <c r="S20" t="n">
-        <v>746.78</v>
+        <v>96.45</v>
       </c>
       <c r="T20" t="n">
-        <v>12.45</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>1.56</v>
+        <v>0.32</v>
       </c>
       <c r="V20" t="n">
-        <v>93.3</v>
+        <v>19.3</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>1:36:27</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>45515</v>
+        <v>45558</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2727,31 +2723,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2761,102 +2757,102 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>467</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.5</v>
+        <v>29.2</v>
       </c>
       <c r="R21" t="n">
-        <v>94</v>
+        <v>21326</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>355.43</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03</v>
+        <v>5.92</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01</v>
+        <v>0.37</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8</v>
+        <v>22.2</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>5:55:26</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>45512</v>
+        <v>45544</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2866,73 +2862,77 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="K22" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="L22" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>7</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024-08-03</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>41.6</v>
       </c>
       <c r="R22" t="n">
-        <v>216</v>
+        <v>9457</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>157.62</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>31.5</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>2:37:37</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>45507</v>
+        <v>45524</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2947,21 +2947,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2976,73 +2976,77 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>471</v>
+        <v>248</v>
       </c>
       <c r="J23" t="n">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="K23" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L23" t="n">
         <v>100</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.5</v>
+        <v>58.5</v>
       </c>
       <c r="R23" t="n">
-        <v>16163</v>
+        <v>9673</v>
       </c>
       <c r="S23" t="n">
-        <v>269.38</v>
+        <v>161.22</v>
       </c>
       <c r="T23" t="n">
-        <v>4.49</v>
+        <v>2.69</v>
       </c>
       <c r="U23" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="V23" t="n">
-        <v>67.3</v>
+        <v>40.3</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>2:41:13</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45506</v>
+        <v>45522</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3057,102 +3061,106 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I24" t="n">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="J24" t="n">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="K24" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.8</v>
+        <v>101.9</v>
       </c>
       <c r="R24" t="n">
-        <v>25131</v>
+        <v>44807</v>
       </c>
       <c r="S24" t="n">
-        <v>418.85</v>
+        <v>746.78</v>
       </c>
       <c r="T24" t="n">
-        <v>6.98</v>
+        <v>12.45</v>
       </c>
       <c r="U24" t="n">
-        <v>0.7</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>41.9</v>
+        <v>93.3</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>6:58:51</t>
+          <t>12:26:47</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45502</v>
+        <v>45515</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3161,37 +3169,37 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3201,158 +3209,154 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="J25" t="n">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.7</v>
+        <v>3.5</v>
       </c>
       <c r="R25" t="n">
-        <v>15807</v>
+        <v>94</v>
       </c>
       <c r="S25" t="n">
-        <v>263.45</v>
+        <v>1.57</v>
       </c>
       <c r="T25" t="n">
-        <v>4.39</v>
+        <v>0.03</v>
       </c>
       <c r="U25" t="n">
-        <v>0.44</v>
+        <v>0.01</v>
       </c>
       <c r="V25" t="n">
-        <v>26.3</v>
+        <v>0.8</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>4:23:27</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>45491</v>
+        <v>45512</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>351</v>
+        <v>59</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="U26" t="n">
         <v>0.03</v>
@@ -3367,16 +3371,16 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>45480</v>
+        <v>45507</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -3385,22 +3389,22 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3415,7 +3419,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3425,10 +3429,10 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="J27" t="n">
-        <v>325</v>
+        <v>458</v>
       </c>
       <c r="K27" t="n">
         <v>1.7</v>
@@ -3438,55 +3442,55 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.4</v>
+        <v>114.5</v>
       </c>
       <c r="R27" t="n">
-        <v>11415</v>
+        <v>16163</v>
       </c>
       <c r="S27" t="n">
-        <v>190.25</v>
+        <v>269.38</v>
       </c>
       <c r="T27" t="n">
-        <v>3.17</v>
+        <v>4.49</v>
       </c>
       <c r="U27" t="n">
-        <v>0.45</v>
+        <v>1.12</v>
       </c>
       <c r="V27" t="n">
-        <v>27.2</v>
+        <v>67.3</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>4:29:23</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>45480</v>
+        <v>45506</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -3495,37 +3499,37 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3535,97 +3539,97 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>390</v>
+        <v>798</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>768</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>76.8</v>
       </c>
       <c r="R28" t="n">
-        <v>74</v>
+        <v>25131</v>
       </c>
       <c r="S28" t="n">
-        <v>1.23</v>
+        <v>418.85</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02</v>
+        <v>6.98</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>41.9</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>6:58:51</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>45473</v>
+        <v>45502</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3635,7 +3639,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3645,10 +3649,10 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="J29" t="n">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="K29" t="n">
         <v>1.5</v>
@@ -3658,55 +3662,55 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>72.5</v>
+        <v>38.7</v>
       </c>
       <c r="R29" t="n">
-        <v>17475</v>
+        <v>15807</v>
       </c>
       <c r="S29" t="n">
-        <v>291.25</v>
+        <v>263.45</v>
       </c>
       <c r="T29" t="n">
-        <v>4.85</v>
+        <v>4.39</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="V29" t="n">
-        <v>48.5</v>
+        <v>26.3</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>4:23:27</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45472</v>
+        <v>45491</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -3715,27 +3719,27 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3755,68 +3759,68 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>523</v>
+        <v>342</v>
       </c>
       <c r="J30" t="n">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="K30" t="n">
         <v>1.7</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>25</v>
+        <v>46.4</v>
       </c>
       <c r="R30" t="n">
-        <v>865</v>
+        <v>11415</v>
       </c>
       <c r="S30" t="n">
-        <v>14.42</v>
+        <v>190.25</v>
       </c>
       <c r="T30" t="n">
-        <v>0.24</v>
+        <v>3.17</v>
       </c>
       <c r="U30" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="V30" t="n">
-        <v>14.4</v>
+        <v>27.2</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>45464</v>
+        <v>45480</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3831,21 +3835,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3855,78 +3859,82 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="J31" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>7302</v>
+        <v>108</v>
       </c>
       <c r="S31" t="n">
-        <v>121.7</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>2.03</v>
+        <v>0.03</v>
       </c>
       <c r="U31" t="n">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="V31" t="n">
-        <v>40.6</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45463</v>
+        <v>45480</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3935,38 +3943,37 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3976,97 +3983,97 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="J32" t="n">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.3</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>9644</v>
+        <v>74</v>
       </c>
       <c r="S32" t="n">
-        <v>160.73</v>
+        <v>1.23</v>
       </c>
       <c r="T32" t="n">
-        <v>2.68</v>
+        <v>0.02</v>
       </c>
       <c r="U32" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="V32" t="n">
-        <v>26.8</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -4076,82 +4083,78 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="K33" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.5</v>
+        <v>72.5</v>
       </c>
       <c r="R33" t="n">
-        <v>267</v>
+        <v>17475</v>
       </c>
       <c r="S33" t="n">
-        <v>4.45</v>
+        <v>291.25</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>48.5</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>4:51:15</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>45454</v>
+        <v>45472</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -4160,27 +4163,27 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4200,25 +4203,25 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>86</v>
+        <v>523</v>
       </c>
       <c r="J34" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -4228,40 +4231,40 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="R34" t="n">
-        <v>3218</v>
+        <v>865</v>
       </c>
       <c r="S34" t="n">
-        <v>53.63</v>
+        <v>14.42</v>
       </c>
       <c r="T34" t="n">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="U34" t="n">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="V34" t="n">
-        <v>53.6</v>
+        <v>14.4</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>0:14:25</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>45453</v>
+        <v>45464</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -4276,31 +4279,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4310,68 +4313,68 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="J35" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="K35" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="L35" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.5</v>
+        <v>51</v>
       </c>
       <c r="R35" t="n">
-        <v>2525</v>
+        <v>7302</v>
       </c>
       <c r="S35" t="n">
-        <v>42.08</v>
+        <v>121.7</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7</v>
+        <v>2.03</v>
       </c>
       <c r="U35" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="V35" t="n">
-        <v>10.5</v>
+        <v>40.6</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>45453</v>
+        <v>45463</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4380,27 +4383,28 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4410,82 +4414,78 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récits du Vieux Royaume </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>744</v>
+        <v>277</v>
       </c>
       <c r="J36" t="n">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="K36" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="O36" t="n">
         <v>6</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.8</v>
+        <v>44.3</v>
       </c>
       <c r="R36" t="n">
-        <v>2597</v>
+        <v>9644</v>
       </c>
       <c r="S36" t="n">
-        <v>43.28</v>
+        <v>160.73</v>
       </c>
       <c r="T36" t="n">
-        <v>0.72</v>
+        <v>2.68</v>
       </c>
       <c r="U36" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="V36" t="n">
-        <v>10.8</v>
+        <v>26.8</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0:43:17</t>
+          <t>2:40:44</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -4494,137 +4494,141 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I37" t="n">
-        <v>819</v>
+        <v>542</v>
       </c>
       <c r="J37" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K37" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>2</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2024-06-07</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>93</v>
-      </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="R37" t="n">
-        <v>834</v>
+        <v>267</v>
       </c>
       <c r="S37" t="n">
-        <v>13.9</v>
+        <v>4.45</v>
       </c>
       <c r="T37" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="V37" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4644,68 +4648,68 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>568</v>
+        <v>86</v>
       </c>
       <c r="J38" t="n">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="K38" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L38" t="n">
         <v>100</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R38" t="n">
-        <v>19208</v>
+        <v>3218</v>
       </c>
       <c r="S38" t="n">
-        <v>320.13</v>
+        <v>53.63</v>
       </c>
       <c r="T38" t="n">
-        <v>5.34</v>
+        <v>0.89</v>
       </c>
       <c r="U38" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="V38" t="n">
-        <v>45.7</v>
+        <v>53.6</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>5:20:08</t>
+          <t>0:53:38</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>45445</v>
+        <v>45453</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4720,31 +4724,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4754,68 +4758,68 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>557</v>
+        <v>58</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K39" t="n">
-        <v>12.5</v>
+        <v>1.1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>2525</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08</v>
+        <v>42.08</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -4824,37 +4828,37 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Michael Joseph</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4864,97 +4868,97 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>456</v>
+        <v>819</v>
       </c>
       <c r="J40" t="n">
-        <v>447</v>
+        <v>17</v>
       </c>
       <c r="K40" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L40" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>149</v>
+        <v>5.7</v>
       </c>
       <c r="R40" t="n">
-        <v>15965</v>
+        <v>834</v>
       </c>
       <c r="S40" t="n">
-        <v>266.08</v>
+        <v>13.9</v>
       </c>
       <c r="T40" t="n">
-        <v>4.43</v>
+        <v>0.23</v>
       </c>
       <c r="U40" t="n">
-        <v>1.48</v>
+        <v>0.08</v>
       </c>
       <c r="V40" t="n">
-        <v>88.7</v>
+        <v>4.6</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>45439</v>
+        <v>45450</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4964,78 +4968,82 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t xml:space="preserve">Récits du Vieux Royaume </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I41" t="n">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="J41" t="n">
-        <v>741</v>
+        <v>47</v>
       </c>
       <c r="K41" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.3</v>
+        <v>11.8</v>
       </c>
       <c r="R41" t="n">
-        <v>26517</v>
+        <v>2597</v>
       </c>
       <c r="S41" t="n">
-        <v>441.95</v>
+        <v>43.28</v>
       </c>
       <c r="T41" t="n">
-        <v>7.37</v>
+        <v>0.72</v>
       </c>
       <c r="U41" t="n">
-        <v>0.82</v>
+        <v>0.18</v>
       </c>
       <c r="V41" t="n">
-        <v>49.1</v>
+        <v>10.8</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>7:21:57</t>
+          <t>0:43:17</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>45436</v>
+        <v>45450</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -5044,32 +5052,32 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5079,77 +5087,73 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois corps </t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>745</v>
+        <v>568</v>
       </c>
       <c r="J42" t="n">
-        <v>708</v>
+        <v>546</v>
       </c>
       <c r="K42" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L42" t="n">
         <v>100</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P42" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="R42" t="n">
-        <v>30613</v>
+        <v>19208</v>
       </c>
       <c r="S42" t="n">
-        <v>510.22</v>
+        <v>320.13</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>5.34</v>
       </c>
       <c r="U42" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="V42" t="n">
-        <v>42.5</v>
+        <v>45.7</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>8:30:13</t>
+          <t>5:20:08</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>45427</v>
+        <v>45445</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -5164,21 +5168,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Vance Jack</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5193,77 +5197,73 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de Tschaï </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>266</v>
+        <v>456</v>
       </c>
       <c r="J43" t="n">
-        <v>260</v>
+        <v>447</v>
       </c>
       <c r="K43" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L43" t="n">
         <v>100</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.3</v>
+        <v>149</v>
       </c>
       <c r="R43" t="n">
-        <v>13755</v>
+        <v>15965</v>
       </c>
       <c r="S43" t="n">
-        <v>229.25</v>
+        <v>266.08</v>
       </c>
       <c r="T43" t="n">
-        <v>3.82</v>
+        <v>4.43</v>
       </c>
       <c r="U43" t="n">
-        <v>0.64</v>
+        <v>1.48</v>
       </c>
       <c r="V43" t="n">
-        <v>38.2</v>
+        <v>88.7</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0:38</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>3:49:15</t>
+          <t>4:26:05</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -5278,64 +5278,59 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mervyn Peake
-Patrick Reumaux</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gormenghast </t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>883</v>
+        <v>557</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -5348,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -5360,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -5369,16 +5364,16 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>45410</v>
+        <v>45439</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -5387,27 +5382,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>King Stephen</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5427,68 +5422,68 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>429</v>
+        <v>766</v>
       </c>
       <c r="J45" t="n">
-        <v>419</v>
+        <v>741</v>
       </c>
       <c r="K45" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L45" t="n">
         <v>100</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="n">
-        <v>59.9</v>
+        <v>82.3</v>
       </c>
       <c r="R45" t="n">
-        <v>17983</v>
+        <v>26517</v>
       </c>
       <c r="S45" t="n">
-        <v>299.72</v>
+        <v>441.95</v>
       </c>
       <c r="T45" t="n">
-        <v>5</v>
+        <v>7.37</v>
       </c>
       <c r="U45" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="V45" t="n">
-        <v>42.8</v>
+        <v>49.1</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>4:59:43</t>
+          <t>7:21:57</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>45410</v>
+        <v>45436</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -5503,102 +5498,106 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Trois corps – 01 – Le problème à trois corps</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t xml:space="preserve">Trois corps </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I46" t="n">
-        <v>572</v>
+        <v>745</v>
       </c>
       <c r="J46" t="n">
-        <v>484</v>
+        <v>708</v>
       </c>
       <c r="K46" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L46" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.2</v>
+        <v>59</v>
       </c>
       <c r="R46" t="n">
-        <v>22707</v>
+        <v>30613</v>
       </c>
       <c r="S46" t="n">
-        <v>378.45</v>
+        <v>510.22</v>
       </c>
       <c r="T46" t="n">
-        <v>6.31</v>
+        <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="V46" t="n">
-        <v>29.1</v>
+        <v>42.5</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0:29</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>6:18:27</t>
+          <t>8:30:13</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>45404</v>
+        <v>45427</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5607,32 +5606,32 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Vance Jack</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5642,73 +5641,77 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t xml:space="preserve">Cycle de Tschaï </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I47" t="n">
-        <v>888</v>
+        <v>266</v>
       </c>
       <c r="J47" t="n">
-        <v>870</v>
+        <v>260</v>
       </c>
       <c r="K47" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L47" t="n">
         <v>100</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P47" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="R47" t="n">
-        <v>37279</v>
+        <v>13755</v>
       </c>
       <c r="S47" t="n">
-        <v>621.3200000000001</v>
+        <v>229.25</v>
       </c>
       <c r="T47" t="n">
-        <v>10.36</v>
+        <v>3.82</v>
       </c>
       <c r="U47" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="V47" t="n">
-        <v>31.1</v>
+        <v>38.2</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:38</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>10:21:19</t>
+          <t>3:49:15</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>45390</v>
+        <v>45415</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5723,21 +5726,22 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>la route</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5747,78 +5751,82 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t xml:space="preserve">Gormenghast </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I48" t="n">
-        <v>385</v>
+        <v>883</v>
       </c>
       <c r="J48" t="n">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="L48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>191.5</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>11242</v>
+        <v>14</v>
       </c>
       <c r="S48" t="n">
-        <v>187.37</v>
+        <v>0.23</v>
       </c>
       <c r="T48" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>93.7</v>
+        <v>0.2</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>3:07:22</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>45370</v>
+        <v>45410</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -5827,27 +5835,27 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>King Stephen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5867,68 +5875,68 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="J49" t="n">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="O49" t="n">
         <v>7</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q49" t="n">
-        <v>10.2</v>
+        <v>59.9</v>
       </c>
       <c r="R49" t="n">
-        <v>2566</v>
+        <v>17983</v>
       </c>
       <c r="S49" t="n">
-        <v>42.77</v>
+        <v>299.72</v>
       </c>
       <c r="T49" t="n">
+        <v>5</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.71</v>
       </c>
-      <c r="U49" t="n">
-        <v>0.18</v>
-      </c>
       <c r="V49" t="n">
-        <v>10.7</v>
+        <v>42.8</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0:42:46</t>
+          <t>4:59:43</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>45369</v>
+        <v>45410</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -5943,21 +5951,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5972,77 +5980,73 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les livres de la terre fracturée </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>759</v>
+        <v>572</v>
       </c>
       <c r="J50" t="n">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q50" t="n">
-        <v>7</v>
+        <v>37.2</v>
       </c>
       <c r="R50" t="n">
-        <v>1636</v>
+        <v>22707</v>
       </c>
       <c r="S50" t="n">
-        <v>27.27</v>
+        <v>378.45</v>
       </c>
       <c r="T50" t="n">
-        <v>0.45</v>
+        <v>6.31</v>
       </c>
       <c r="U50" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="V50" t="n">
-        <v>9.1</v>
+        <v>29.1</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:29</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>6:18:27</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>45363</v>
+        <v>45404</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -6057,26 +6061,26 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6086,77 +6090,73 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le troupeau aveugle </t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>382</v>
+        <v>888</v>
       </c>
       <c r="J51" t="n">
-        <v>13</v>
+        <v>870</v>
       </c>
       <c r="K51" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q51" t="n">
-        <v>6.5</v>
+        <v>43.5</v>
       </c>
       <c r="R51" t="n">
-        <v>610</v>
+        <v>37279</v>
       </c>
       <c r="S51" t="n">
-        <v>10.17</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="T51" t="n">
-        <v>0.17</v>
+        <v>10.36</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="V51" t="n">
-        <v>5.1</v>
+        <v>31.1</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0:10:10</t>
+          <t>10:21:19</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>45361</v>
+        <v>45390</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -6171,21 +6171,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6205,25 +6205,25 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J52" t="n">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -6233,521 +6233,529 @@
         <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>191.5</v>
       </c>
       <c r="R52" t="n">
-        <v>750</v>
+        <v>11242</v>
       </c>
       <c r="S52" t="n">
-        <v>12.5</v>
+        <v>187.37</v>
       </c>
       <c r="T52" t="n">
-        <v>0.21</v>
+        <v>3.12</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1</v>
+        <v>1.56</v>
       </c>
       <c r="V52" t="n">
-        <v>6.2</v>
+        <v>93.7</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>3:07:22</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>45360</v>
+        <v>45370</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>histoire</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>31</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ravage</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>René Barjavel</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>René Barjavel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>330</v>
+      </c>
+      <c r="J53" t="n">
+        <v>41</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>12</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>7</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2566</v>
+      </c>
+      <c r="S53" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V53" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>0:10</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>0:42:46</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>30</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>La cinquième saison</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nora K. Jemisin</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nora Jemisin</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>fiction/fantasy</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les livres de la terre fracturée </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>759</v>
+      </c>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1636</v>
+      </c>
+      <c r="S54" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V54" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>0:09</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>0:27:16</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Le troupeau aveugle, 1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>John Brunner</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>John Brunner</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troupeau aveugle </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>382</v>
+      </c>
+      <c r="J55" t="n">
+        <v>13</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>610</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>0:04</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>0:10:10</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>400</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>750</v>
+      </c>
+      <c r="S56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>0:12:30</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>histoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>26</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>337</v>
-      </c>
-      <c r="J53" t="n">
-        <v>329</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>100</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>8</v>
-      </c>
-      <c r="P53" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>16650</v>
-      </c>
-      <c r="S53" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V53" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0:34</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>4:37:30</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>25</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>476</v>
-      </c>
-      <c r="J54" t="n">
-        <v>417</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L54" t="n">
-        <v>100</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2024-01-09</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>14530</v>
-      </c>
-      <c r="S54" t="n">
-        <v>242.17</v>
-      </c>
-      <c r="T54" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V54" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>4:02:10</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>non-fiction</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>parenting</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>24</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Red Rising</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Pierce Brown</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Pierce Brown</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>fiction/SF</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>636</v>
-      </c>
-      <c r="J55" t="n">
-        <v>625</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L55" t="n">
-        <v>100</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>8</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>125</v>
-      </c>
-      <c r="R55" t="n">
-        <v>26174</v>
-      </c>
-      <c r="S55" t="n">
-        <v>436.23</v>
-      </c>
-      <c r="T55" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V55" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>1:27</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>7:16:14</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>19</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Il n'y a pas de parent parfait</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Isabelle Filliozat</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Isabelle Filliozat</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>445</v>
-      </c>
-      <c r="J56" t="n">
-        <v>277</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L56" t="n">
-        <v>62</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>2024-02-25</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>38</v>
-      </c>
-      <c r="P56" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="R56" t="n">
-        <v>12721</v>
-      </c>
-      <c r="S56" t="n">
-        <v>212.02</v>
-      </c>
-      <c r="T56" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V56" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0:26</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>3:32:01</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>non-fiction</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>parenting</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>23</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Dan Simmons</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Dan Simmons</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6757,68 +6765,68 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1332</v>
+        <v>337</v>
       </c>
       <c r="J57" t="n">
-        <v>1127</v>
+        <v>329</v>
       </c>
       <c r="K57" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L57" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P57" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q57" t="n">
-        <v>66.3</v>
+        <v>41.1</v>
       </c>
       <c r="R57" t="n">
-        <v>47893</v>
+        <v>16650</v>
       </c>
       <c r="S57" t="n">
-        <v>798.22</v>
+        <v>277.5</v>
       </c>
       <c r="T57" t="n">
-        <v>13.3</v>
+        <v>4.62</v>
       </c>
       <c r="U57" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="V57" t="n">
-        <v>47</v>
+        <v>34.7</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>0:46</t>
+          <t>0:34</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>13:18:13</t>
+          <t>4:37:30</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z57" s="2" t="n">
-        <v>45344</v>
+        <v>45358</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -6827,27 +6835,27 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hypérion v1.1</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6857,121 +6865,117 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Cantos d'Hypérion </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>1034</v>
+        <v>476</v>
       </c>
       <c r="J58" t="n">
-        <v>1007</v>
+        <v>417</v>
       </c>
       <c r="K58" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L58" t="n">
         <v>100</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>62.9</v>
+        <v>104.2</v>
       </c>
       <c r="R58" t="n">
-        <v>45693</v>
+        <v>14530</v>
       </c>
       <c r="S58" t="n">
-        <v>761.55</v>
+        <v>242.17</v>
       </c>
       <c r="T58" t="n">
-        <v>12.69</v>
+        <v>4.04</v>
       </c>
       <c r="U58" t="n">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="V58" t="n">
-        <v>47.6</v>
+        <v>60.5</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>0:47</t>
+          <t>1:00</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>12:41:33</t>
+          <t>4:02:10</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z58" s="2" t="n">
-        <v>45319</v>
+        <v>45352</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6981,97 +6985,97 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>299</v>
+        <v>636</v>
       </c>
       <c r="J59" t="n">
-        <v>263</v>
+        <v>625</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L59" t="n">
         <v>100</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>43.8</v>
+        <v>125</v>
       </c>
       <c r="R59" t="n">
-        <v>16035</v>
+        <v>26174</v>
       </c>
       <c r="S59" t="n">
-        <v>267.25</v>
+        <v>436.23</v>
       </c>
       <c r="T59" t="n">
-        <v>4.45</v>
+        <v>7.27</v>
       </c>
       <c r="U59" t="n">
-        <v>0.74</v>
+        <v>1.45</v>
       </c>
       <c r="V59" t="n">
-        <v>44.5</v>
+        <v>87.2</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0:44</t>
+          <t>1:27</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>4:27:15</t>
+          <t>7:16:14</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z59" s="2" t="n">
-        <v>45305</v>
+        <v>45351</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7091,68 +7095,68 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>675</v>
+        <v>445</v>
       </c>
       <c r="J60" t="n">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="K60" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L60" t="n">
         <v>62</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="P60" t="n">
         <v>8</v>
       </c>
       <c r="Q60" t="n">
-        <v>52.2</v>
+        <v>34.6</v>
       </c>
       <c r="R60" t="n">
-        <v>18029</v>
+        <v>12721</v>
       </c>
       <c r="S60" t="n">
-        <v>300.48</v>
+        <v>212.02</v>
       </c>
       <c r="T60" t="n">
-        <v>5.01</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="V60" t="n">
-        <v>37.6</v>
+        <v>26.5</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>3:32:01</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z60" s="2" t="n">
-        <v>45300</v>
+        <v>45347</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
@@ -7167,26 +7171,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7201,68 +7205,68 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>449</v>
+        <v>1332</v>
       </c>
       <c r="J61" t="n">
-        <v>289</v>
+        <v>1127</v>
       </c>
       <c r="K61" t="n">
         <v>1.4</v>
       </c>
       <c r="L61" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P61" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q61" t="n">
-        <v>28.9</v>
+        <v>66.3</v>
       </c>
       <c r="R61" t="n">
-        <v>12240</v>
+        <v>47893</v>
       </c>
       <c r="S61" t="n">
-        <v>204</v>
+        <v>798.22</v>
       </c>
       <c r="T61" t="n">
-        <v>3.4</v>
+        <v>13.3</v>
       </c>
       <c r="U61" t="n">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
       <c r="V61" t="n">
-        <v>20.4</v>
+        <v>47</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:46</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>13:18:13</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z61" s="2" t="n">
-        <v>45299</v>
+        <v>45344</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
@@ -7277,21 +7281,21 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>Hypérion v1.1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7306,21 +7310,25 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t xml:space="preserve">Les Cantos d'Hypérion </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I62" t="n">
-        <v>809</v>
+        <v>1034</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1007</v>
       </c>
       <c r="K62" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -7329,50 +7337,50 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>62.9</v>
       </c>
       <c r="R62" t="n">
-        <v>22</v>
+        <v>45693</v>
       </c>
       <c r="S62" t="n">
-        <v>0.37</v>
+        <v>761.55</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01</v>
+        <v>12.69</v>
       </c>
       <c r="U62" t="n">
-        <v>0.01</v>
+        <v>0.79</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4</v>
+        <v>47.6</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:47</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>12:41:33</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="Z62" s="2" t="n">
-        <v>45299</v>
+        <v>45319</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -7387,21 +7395,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>Your Brain’s Not Broken</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7411,7 +7419,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -7421,189 +7429,629 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="K63" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q63" t="n">
-        <v>8</v>
+        <v>43.8</v>
       </c>
       <c r="R63" t="n">
-        <v>388</v>
+        <v>16035</v>
       </c>
       <c r="S63" t="n">
-        <v>6.47</v>
+        <v>267.25</v>
       </c>
       <c r="T63" t="n">
-        <v>0.11</v>
+        <v>4.45</v>
       </c>
       <c r="U63" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="V63" t="n">
-        <v>6.5</v>
+        <v>44.5</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:44</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>4:27:15</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z63" s="2" t="n">
-        <v>45257</v>
+        <v>45305</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Michaeleen Doucleff</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>non-fiction/parenting</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>675</v>
+      </c>
+      <c r="J64" t="n">
+        <v>418</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>62</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>10</v>
+      </c>
+      <c r="P64" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>18029</v>
+      </c>
+      <c r="S64" t="n">
+        <v>300.48</v>
+      </c>
+      <c r="T64" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V64" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>0:37</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>5:00:29</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>parenting</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>La nuit des temps</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Barjavel,René</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Barjavel René</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>449</v>
+      </c>
+      <c r="J65" t="n">
+        <v>289</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>64</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>45</v>
+      </c>
+      <c r="P65" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="R65" t="n">
+        <v>12240</v>
+      </c>
+      <c r="S65" t="n">
+        <v>204</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V65" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>0:20</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>3:24:00</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>La faune de l'espace</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Van Vogt,Alfred E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Van Vogt</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>809</v>
+      </c>
+      <c r="J66" t="n">
         <v>2</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="K66" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>22</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Let's Get Together</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Isaac Asimov</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>68</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>12</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>8</v>
+      </c>
+      <c r="R67" t="n">
+        <v>388</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>0:06:28</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Le crime de l'Orient-Express</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Christie, Agatha</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Christie Agatha</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>fiction/SF</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t xml:space="preserve">l'Orient </t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I64" t="n">
+      <c r="I68" t="n">
         <v>349</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J68" t="n">
         <v>330</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K68" t="n">
         <v>1.5</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L68" t="n">
         <v>100</v>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="O68" t="n">
         <v>7</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P68" t="n">
         <v>7</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q68" t="n">
         <v>47.1</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R68" t="n">
         <v>13191</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S68" t="n">
         <v>219.85</v>
       </c>
-      <c r="T64" t="n">
+      <c r="T68" t="n">
         <v>3.66</v>
       </c>
-      <c r="U64" t="n">
+      <c r="U68" t="n">
         <v>0.52</v>
       </c>
-      <c r="V64" t="n">
+      <c r="V68" t="n">
         <v>31.4</v>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>3:39:51</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>1934</t>
         </is>
       </c>
-      <c r="Z64" s="2" t="n">
+      <c r="Z68" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>fiction</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>SF</t>
         </is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,11 +581,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Superméchant débutant</t>
+          <t>La Société protectrice des kaijus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -615,68 +615,68 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>64</v>
+        <v>45.8</v>
       </c>
       <c r="R2" t="n">
-        <v>13705</v>
+        <v>7271</v>
       </c>
       <c r="S2" t="n">
-        <v>228.42</v>
+        <v>121.18</v>
       </c>
       <c r="T2" t="n">
-        <v>3.81</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>45.7</v>
+        <v>30.3</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:30</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>3:48:25</t>
+          <t>2:01:11</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45655</v>
+        <v>45659</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -691,31 +691,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
+          <t>Résister</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tj Klune</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Klune</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/société</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,97 +725,97 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>699</v>
+        <v>151</v>
       </c>
       <c r="J3" t="n">
-        <v>690</v>
+        <v>115</v>
       </c>
       <c r="K3" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>138</v>
+        <v>28.8</v>
       </c>
       <c r="R3" t="n">
-        <v>21762</v>
+        <v>3827</v>
       </c>
       <c r="S3" t="n">
-        <v>362.7</v>
+        <v>63.78</v>
       </c>
       <c r="T3" t="n">
-        <v>6.04</v>
+        <v>1.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.21</v>
+        <v>0.27</v>
       </c>
       <c r="V3" t="n">
-        <v>72.5</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1:12</t>
+          <t>0:16</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>6:02:42</t>
+          <t>1:03:47</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45651</v>
+        <v>45656</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>société</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
+          <t>Superméchant débutant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -825,73 +825,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encyclopédie féerique </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>491</v>
+        <v>379</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>23592</v>
+        <v>15425</v>
       </c>
       <c r="S4" t="n">
-        <v>393.2</v>
+        <v>257.08</v>
       </c>
       <c r="T4" t="n">
-        <v>6.55</v>
+        <v>4.28</v>
       </c>
       <c r="U4" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="V4" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:51</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>6:33:12</t>
+          <t>4:17:05</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -900,7 +896,7 @@
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45645</v>
+        <v>45655</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -909,27 +905,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L’Encyclopédie féerique d’Emily Wilde</t>
+          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Tj Klune</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Klune</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -944,77 +940,73 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily Wilde </t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>538</v>
+        <v>699</v>
       </c>
       <c r="J5" t="n">
-        <v>513</v>
+        <v>690</v>
       </c>
       <c r="K5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>85.5</v>
+        <v>138</v>
       </c>
       <c r="R5" t="n">
-        <v>20584</v>
+        <v>21762</v>
       </c>
       <c r="S5" t="n">
-        <v>343.07</v>
+        <v>362.7</v>
       </c>
       <c r="T5" t="n">
-        <v>5.72</v>
+        <v>6.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="V5" t="n">
-        <v>57.2</v>
+        <v>72.5</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0:57</t>
+          <t>1:12</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>5:43:04</t>
+          <t>6:02:42</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45645</v>
+        <v>45651</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1029,21 +1021,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blackwater T6 : Pluie</t>
+          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1053,82 +1045,82 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Encyclopédie féerique </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="J6" t="n">
-        <v>273</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="n">
         <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>273</v>
+        <v>58.8</v>
       </c>
       <c r="R6" t="n">
-        <v>9999</v>
+        <v>23592</v>
       </c>
       <c r="S6" t="n">
-        <v>166.65</v>
+        <v>393.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.78</v>
+        <v>6.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2.78</v>
+        <v>0.82</v>
       </c>
       <c r="V6" t="n">
-        <v>166.6</v>
+        <v>49.2</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2:46</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2:46:39</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>45637</v>
+        <v>45645</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1137,99 +1129,103 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Résister</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>non-fiction/société</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t xml:space="preserve">Emily Wilde </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I7" t="n">
-        <v>151</v>
+        <v>538</v>
       </c>
       <c r="J7" t="n">
-        <v>66</v>
+        <v>513</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L7" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>22</v>
+        <v>85.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2246</v>
+        <v>20584</v>
       </c>
       <c r="S7" t="n">
-        <v>37.43</v>
+        <v>343.07</v>
       </c>
       <c r="T7" t="n">
-        <v>0.62</v>
+        <v>5.72</v>
       </c>
       <c r="U7" t="n">
-        <v>0.21</v>
+        <v>0.95</v>
       </c>
       <c r="V7" t="n">
-        <v>12.5</v>
+        <v>57.2</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0:12</t>
+          <t>0:57</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0:37:26</t>
+          <t>5:43:04</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1238,36 +1234,36 @@
         </is>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>45637</v>
+        <v>45645</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>société</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
+          <t>Blackwater T6 : Pluie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1277,20 +1273,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I8" t="n">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="J8" t="n">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="K8" t="n">
         <v>1.6</v>
@@ -1300,55 +1300,55 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="R8" t="n">
-        <v>19151</v>
+        <v>9999</v>
       </c>
       <c r="S8" t="n">
-        <v>319.18</v>
+        <v>166.65</v>
       </c>
       <c r="T8" t="n">
-        <v>5.32</v>
+        <v>2.78</v>
       </c>
       <c r="U8" t="n">
-        <v>0.76</v>
+        <v>2.78</v>
       </c>
       <c r="V8" t="n">
-        <v>45.6</v>
+        <v>166.6</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>2:46</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>5:19:11</t>
+          <t>2:46:39</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1357,27 +1357,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1387,82 +1387,78 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="K9" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L9" t="n">
         <v>100</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>93.3</v>
+        <v>72</v>
       </c>
       <c r="R9" t="n">
-        <v>8728</v>
+        <v>19151</v>
       </c>
       <c r="S9" t="n">
-        <v>145.47</v>
+        <v>319.18</v>
       </c>
       <c r="T9" t="n">
-        <v>2.42</v>
+        <v>5.32</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="V9" t="n">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>5:19:11</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1471,27 +1467,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Défaillances systèmes</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1501,82 +1497,82 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="J10" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.8</v>
+        <v>93.3</v>
       </c>
       <c r="R10" t="n">
-        <v>7599</v>
+        <v>8728</v>
       </c>
       <c r="S10" t="n">
-        <v>126.65</v>
+        <v>145.47</v>
       </c>
       <c r="T10" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="U10" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>31.7</v>
+        <v>48.5</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2:06:39</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1585,27 +1581,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Minimalisme numérique</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1615,26 +1611,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1643,79 +1643,79 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>22</v>
+        <v>42.8</v>
       </c>
       <c r="R11" t="n">
-        <v>531</v>
+        <v>7599</v>
       </c>
       <c r="S11" t="n">
-        <v>8.85</v>
+        <v>126.65</v>
       </c>
       <c r="T11" t="n">
-        <v>0.15</v>
+        <v>2.11</v>
       </c>
       <c r="U11" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="V11" t="n">
-        <v>8.800000000000001</v>
+        <v>31.7</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>2:06:39</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tehanu</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1725,34 +1725,30 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J12" t="n">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1761,42 +1757,42 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.6</v>
+        <v>22</v>
       </c>
       <c r="R12" t="n">
-        <v>17096</v>
+        <v>531</v>
       </c>
       <c r="S12" t="n">
-        <v>284.93</v>
+        <v>8.85</v>
       </c>
       <c r="T12" t="n">
-        <v>4.75</v>
+        <v>0.15</v>
       </c>
       <c r="U12" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="V12" t="n">
-        <v>28.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4:44:56</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z12" s="2" t="n">
@@ -1804,32 +1800,32 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1839,34 +1835,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Terremer </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="J13" t="n">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1875,42 +1871,42 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.6</v>
+        <v>34.6</v>
       </c>
       <c r="R13" t="n">
-        <v>17648</v>
+        <v>17096</v>
       </c>
       <c r="S13" t="n">
-        <v>294.13</v>
+        <v>284.93</v>
       </c>
       <c r="T13" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="V13" t="n">
-        <v>42</v>
+        <v>28.5</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>4:54:08</t>
+          <t>4:44:56</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z13" s="2" t="n">
@@ -1923,27 +1919,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1953,78 +1949,82 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t xml:space="preserve">Les voyageurs </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I14" t="n">
-        <v>636</v>
+        <v>400</v>
       </c>
       <c r="J14" t="n">
-        <v>572</v>
+        <v>382</v>
       </c>
       <c r="K14" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.6</v>
+        <v>54.6</v>
       </c>
       <c r="R14" t="n">
-        <v>20106</v>
+        <v>17648</v>
       </c>
       <c r="S14" t="n">
-        <v>335.1</v>
+        <v>294.13</v>
       </c>
       <c r="T14" t="n">
-        <v>5.58</v>
+        <v>4.9</v>
       </c>
       <c r="U14" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="V14" t="n">
-        <v>37.2</v>
+        <v>42</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>5:35:06</t>
+          <t>4:54:08</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>45608</v>
+        <v>45620</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2033,27 +2033,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2063,24 +2063,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>257</v>
+        <v>636</v>
       </c>
       <c r="J15" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="K15" t="n">
         <v>1.7</v>
@@ -2090,55 +2086,55 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.5</v>
+        <v>63.6</v>
       </c>
       <c r="R15" t="n">
-        <v>8578</v>
+        <v>20106</v>
       </c>
       <c r="S15" t="n">
-        <v>142.97</v>
+        <v>335.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>5.58</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="V15" t="n">
-        <v>23.8</v>
+        <v>37.2</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>5:35:06</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45598</v>
+        <v>45608</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2147,27 +2143,27 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2177,82 +2173,82 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="K16" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P16" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.5</v>
+        <v>41.5</v>
       </c>
       <c r="R16" t="n">
-        <v>22254</v>
+        <v>8578</v>
       </c>
       <c r="S16" t="n">
-        <v>370.9</v>
+        <v>142.97</v>
       </c>
       <c r="T16" t="n">
-        <v>6.18</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="V16" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>2:22:58</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>45588</v>
+        <v>45598</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2261,27 +2257,27 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2291,12 +2287,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2305,50 +2301,50 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="J17" t="n">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="K17" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L17" t="n">
         <v>100</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.2</v>
+        <v>32.5</v>
       </c>
       <c r="R17" t="n">
-        <v>8572</v>
+        <v>22254</v>
       </c>
       <c r="S17" t="n">
-        <v>142.87</v>
+        <v>370.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.38</v>
+        <v>6.18</v>
       </c>
       <c r="U17" t="n">
         <v>0.48</v>
       </c>
       <c r="V17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -2357,16 +2353,16 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>6:10:54</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2375,27 +2371,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2405,24 +2401,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="J18" t="n">
-        <v>487</v>
+        <v>206</v>
       </c>
       <c r="K18" t="n">
         <v>1.4</v>
@@ -2432,55 +2428,55 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="R18" t="n">
-        <v>21135</v>
+        <v>8572</v>
       </c>
       <c r="S18" t="n">
-        <v>352.25</v>
+        <v>142.87</v>
       </c>
       <c r="T18" t="n">
-        <v>5.87</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
       <c r="V18" t="n">
-        <v>70.40000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>2:22:52</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2489,17 +2485,17 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2529,72 +2525,72 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>789</v>
+        <v>504</v>
       </c>
       <c r="J19" t="n">
-        <v>779</v>
+        <v>487</v>
       </c>
       <c r="K19" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>26925</v>
+        <v>21135</v>
       </c>
       <c r="S19" t="n">
-        <v>448.75</v>
+        <v>352.25</v>
       </c>
       <c r="T19" t="n">
-        <v>7.48</v>
+        <v>5.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V19" t="n">
-        <v>74.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>5:52:15</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>45564</v>
+        <v>45568</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2609,11 +2605,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2638,77 +2634,77 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>139</v>
+        <v>789</v>
       </c>
       <c r="J20" t="n">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="K20" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>129.8</v>
       </c>
       <c r="R20" t="n">
-        <v>5787</v>
+        <v>26925</v>
       </c>
       <c r="S20" t="n">
-        <v>96.45</v>
+        <v>448.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>7.48</v>
       </c>
       <c r="U20" t="n">
-        <v>0.32</v>
+        <v>1.25</v>
       </c>
       <c r="V20" t="n">
-        <v>19.3</v>
+        <v>74.8</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>7:28:45</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2723,21 +2719,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2747,78 +2743,82 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I21" t="n">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="J21" t="n">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="K21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P21" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.2</v>
+        <v>27</v>
       </c>
       <c r="R21" t="n">
-        <v>21326</v>
+        <v>5787</v>
       </c>
       <c r="S21" t="n">
-        <v>355.43</v>
+        <v>96.45</v>
       </c>
       <c r="T21" t="n">
-        <v>5.92</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="V21" t="n">
-        <v>22.2</v>
+        <v>19.3</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>1:36:27</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>45544</v>
+        <v>45558</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -2827,54 +2827,50 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="J22" t="n">
-        <v>208</v>
+        <v>467</v>
       </c>
       <c r="K22" t="n">
         <v>1.3</v>
@@ -2884,55 +2880,55 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.6</v>
+        <v>29.2</v>
       </c>
       <c r="R22" t="n">
-        <v>9457</v>
+        <v>21326</v>
       </c>
       <c r="S22" t="n">
-        <v>157.62</v>
+        <v>355.43</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>5.92</v>
       </c>
       <c r="U22" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="V22" t="n">
-        <v>31.5</v>
+        <v>22.2</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:55:26</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>45524</v>
+        <v>45544</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2941,17 +2937,17 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2966,7 +2962,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2981,63 +2977,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J23" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L23" t="n">
         <v>100</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.5</v>
+        <v>41.6</v>
       </c>
       <c r="R23" t="n">
-        <v>9673</v>
+        <v>9457</v>
       </c>
       <c r="S23" t="n">
-        <v>161.22</v>
+        <v>157.62</v>
       </c>
       <c r="T23" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="V23" t="n">
-        <v>40.3</v>
+        <v>31.5</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>2:37:37</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3046,7 +3042,7 @@
         </is>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45522</v>
+        <v>45524</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3061,36 +3057,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3099,68 +3095,68 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>823</v>
+        <v>248</v>
       </c>
       <c r="J24" t="n">
-        <v>815</v>
+        <v>234</v>
       </c>
       <c r="K24" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>101.9</v>
+        <v>58.5</v>
       </c>
       <c r="R24" t="n">
-        <v>44807</v>
+        <v>9673</v>
       </c>
       <c r="S24" t="n">
-        <v>746.78</v>
+        <v>161.22</v>
       </c>
       <c r="T24" t="n">
-        <v>12.45</v>
+        <v>2.69</v>
       </c>
       <c r="U24" t="n">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="V24" t="n">
-        <v>93.3</v>
+        <v>40.3</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>2:41:13</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3169,27 +3165,27 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3199,26 +3195,30 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>815</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3227,89 +3227,89 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.5</v>
+        <v>101.9</v>
       </c>
       <c r="R25" t="n">
-        <v>94</v>
+        <v>44807</v>
       </c>
       <c r="S25" t="n">
-        <v>1.57</v>
+        <v>746.78</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03</v>
+        <v>12.45</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01</v>
+        <v>1.56</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8</v>
+        <v>93.3</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>12:26:47</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3319,102 +3319,102 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3429,68 +3429,68 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="J27" t="n">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.5</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>16163</v>
+        <v>216</v>
       </c>
       <c r="S27" t="n">
-        <v>269.38</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>4.49</v>
+        <v>0.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.12</v>
+        <v>0.03</v>
       </c>
       <c r="V27" t="n">
-        <v>67.3</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -3505,21 +3505,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3539,68 +3539,68 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>798</v>
+        <v>471</v>
       </c>
       <c r="J28" t="n">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L28" t="n">
         <v>100</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.8</v>
+        <v>114.5</v>
       </c>
       <c r="R28" t="n">
-        <v>25131</v>
+        <v>16163</v>
       </c>
       <c r="S28" t="n">
-        <v>418.85</v>
+        <v>269.38</v>
       </c>
       <c r="T28" t="n">
-        <v>6.98</v>
+        <v>4.49</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="V28" t="n">
-        <v>41.9</v>
+        <v>67.3</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>6:58:51</t>
+          <t>4:29:23</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -3609,27 +3609,27 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3649,25 +3649,25 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>397</v>
+        <v>798</v>
       </c>
       <c r="J29" t="n">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="K29" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L29" t="n">
         <v>100</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3677,40 +3677,40 @@
         <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.7</v>
+        <v>76.8</v>
       </c>
       <c r="R29" t="n">
-        <v>15807</v>
+        <v>25131</v>
       </c>
       <c r="S29" t="n">
-        <v>263.45</v>
+        <v>418.85</v>
       </c>
       <c r="T29" t="n">
-        <v>4.39</v>
+        <v>6.98</v>
       </c>
       <c r="U29" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="V29" t="n">
-        <v>26.3</v>
+        <v>41.9</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>4:23:27</t>
+          <t>6:58:51</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -3725,21 +3725,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3759,59 +3759,59 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="J30" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="K30" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L30" t="n">
         <v>100</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.4</v>
+        <v>38.7</v>
       </c>
       <c r="R30" t="n">
-        <v>11415</v>
+        <v>15807</v>
       </c>
       <c r="S30" t="n">
-        <v>190.25</v>
+        <v>263.45</v>
       </c>
       <c r="T30" t="n">
-        <v>3.17</v>
+        <v>4.39</v>
       </c>
       <c r="U30" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="V30" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>4:23:27</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>45480</v>
+        <v>45491</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3829,27 +3829,27 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3859,78 +3859,74 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2024-07-07</t>
-        </is>
-      </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>46.4</v>
       </c>
       <c r="R31" t="n">
-        <v>108</v>
+        <v>11415</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>190.25</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03</v>
+        <v>3.17</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>27.2</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z31" s="2" t="n">
@@ -3943,65 +3939,69 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I32" t="n">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -4011,22 +4011,22 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="S32" t="n">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -4035,55 +4035,55 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4093,97 +4093,97 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="J33" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>17475</v>
+        <v>74</v>
       </c>
       <c r="S33" t="n">
-        <v>291.25</v>
+        <v>1.23</v>
       </c>
       <c r="T33" t="n">
-        <v>4.85</v>
+        <v>0.02</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V33" t="n">
-        <v>48.5</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4203,16 +4203,16 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="J34" t="n">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="K34" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4221,50 +4221,50 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
-        <v>25</v>
+        <v>72.5</v>
       </c>
       <c r="R34" t="n">
-        <v>865</v>
+        <v>17475</v>
       </c>
       <c r="S34" t="n">
-        <v>14.42</v>
+        <v>291.25</v>
       </c>
       <c r="T34" t="n">
-        <v>0.24</v>
+        <v>4.85</v>
       </c>
       <c r="U34" t="n">
-        <v>0.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>14.4</v>
+        <v>48.5</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>4:51:15</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>45464</v>
+        <v>45472</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -4273,27 +4273,27 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4313,68 +4313,68 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>157</v>
+        <v>523</v>
       </c>
       <c r="J35" t="n">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K35" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L35" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R35" t="n">
-        <v>7302</v>
+        <v>865</v>
       </c>
       <c r="S35" t="n">
-        <v>121.7</v>
+        <v>14.42</v>
       </c>
       <c r="T35" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="U35" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
       <c r="V35" t="n">
-        <v>40.6</v>
+        <v>14.4</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>0:14:25</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4389,22 +4389,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4424,68 +4423,68 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="J36" t="n">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="K36" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L36" t="n">
         <v>100</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.3</v>
+        <v>51</v>
       </c>
       <c r="R36" t="n">
-        <v>9644</v>
+        <v>7302</v>
       </c>
       <c r="S36" t="n">
-        <v>160.73</v>
+        <v>121.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="U36" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="V36" t="n">
-        <v>26.8</v>
+        <v>40.6</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -4500,21 +4499,22 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4524,82 +4524,78 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="K37" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.5</v>
+        <v>44.3</v>
       </c>
       <c r="R37" t="n">
-        <v>267</v>
+        <v>9644</v>
       </c>
       <c r="S37" t="n">
-        <v>4.45</v>
+        <v>160.73</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>26.8</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>2:40:44</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>45454</v>
+        <v>45459</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -4608,27 +4604,27 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4638,26 +4634,30 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I38" t="n">
-        <v>86</v>
+        <v>542</v>
       </c>
       <c r="J38" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -4666,50 +4666,50 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>82</v>
+        <v>3.5</v>
       </c>
       <c r="R38" t="n">
-        <v>3218</v>
+        <v>267</v>
       </c>
       <c r="S38" t="n">
-        <v>53.63</v>
+        <v>4.45</v>
       </c>
       <c r="T38" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U38" t="n">
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="V38" t="n">
-        <v>53.6</v>
+        <v>2.2</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4718,37 +4718,37 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4758,20 +4758,20 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J39" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K39" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L39" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4780,42 +4780,42 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.5</v>
+        <v>82</v>
       </c>
       <c r="R39" t="n">
-        <v>2525</v>
+        <v>3218</v>
       </c>
       <c r="S39" t="n">
-        <v>42.08</v>
+        <v>53.63</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="U39" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="V39" t="n">
-        <v>10.5</v>
+        <v>53.6</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:53:38</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z39" s="2" t="n">
@@ -4828,37 +4828,37 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4868,134 +4868,130 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>819</v>
+        <v>58</v>
       </c>
       <c r="J40" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K40" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="R40" t="n">
-        <v>834</v>
+        <v>2525</v>
       </c>
       <c r="S40" t="n">
-        <v>13.9</v>
+        <v>42.08</v>
       </c>
       <c r="T40" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="V40" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Michael Joseph Ferguson</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Michael Joseph</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récits du Vieux Royaume </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="J41" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K41" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5004,42 +5000,42 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.8</v>
+        <v>5.7</v>
       </c>
       <c r="R41" t="n">
-        <v>2597</v>
+        <v>834</v>
       </c>
       <c r="S41" t="n">
-        <v>43.28</v>
+        <v>13.9</v>
       </c>
       <c r="T41" t="n">
-        <v>0.72</v>
+        <v>0.23</v>
       </c>
       <c r="U41" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="V41" t="n">
-        <v>10.8</v>
+        <v>4.6</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0:43:17</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z41" s="2" t="n">
@@ -5047,32 +5043,32 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5082,78 +5078,82 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t xml:space="preserve">Récits du Vieux Royaume </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I42" t="n">
-        <v>568</v>
+        <v>744</v>
       </c>
       <c r="J42" t="n">
-        <v>546</v>
+        <v>47</v>
       </c>
       <c r="K42" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>78</v>
+        <v>11.8</v>
       </c>
       <c r="R42" t="n">
-        <v>19208</v>
+        <v>2597</v>
       </c>
       <c r="S42" t="n">
-        <v>320.13</v>
+        <v>43.28</v>
       </c>
       <c r="T42" t="n">
-        <v>5.34</v>
+        <v>0.72</v>
       </c>
       <c r="U42" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="V42" t="n">
-        <v>45.7</v>
+        <v>10.8</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>5:20:08</t>
+          <t>0:43:17</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>45445</v>
+        <v>45450</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -5162,27 +5162,27 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5202,10 +5202,10 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>456</v>
+        <v>568</v>
       </c>
       <c r="J43" t="n">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="K43" t="n">
         <v>1.7</v>
@@ -5215,55 +5215,55 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q43" t="n">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="R43" t="n">
-        <v>15965</v>
+        <v>19208</v>
       </c>
       <c r="S43" t="n">
-        <v>266.08</v>
+        <v>320.13</v>
       </c>
       <c r="T43" t="n">
-        <v>4.43</v>
+        <v>5.34</v>
       </c>
       <c r="U43" t="n">
-        <v>1.48</v>
+        <v>0.76</v>
       </c>
       <c r="V43" t="n">
-        <v>88.7</v>
+        <v>45.7</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>5:20:08</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -5278,26 +5278,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5312,64 +5312,64 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="K44" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>15965</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08</v>
+        <v>266.08</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1</v>
+        <v>88.7</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>4:26:05</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="Z44" s="2" t="n">
@@ -5388,26 +5388,26 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5422,68 +5422,68 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>766</v>
+        <v>557</v>
       </c>
       <c r="J45" t="n">
-        <v>741</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1.7</v>
+        <v>12.5</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>26517</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>441.95</v>
+        <v>0.08</v>
       </c>
       <c r="T45" t="n">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>49.1</v>
+        <v>0.1</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>7:21:57</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -5498,26 +5498,26 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5527,77 +5527,73 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois corps </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="J46" t="n">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="K46" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L46" t="n">
         <v>100</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q46" t="n">
-        <v>59</v>
+        <v>82.3</v>
       </c>
       <c r="R46" t="n">
-        <v>30613</v>
+        <v>26517</v>
       </c>
       <c r="S46" t="n">
-        <v>510.22</v>
+        <v>441.95</v>
       </c>
       <c r="T46" t="n">
-        <v>8.5</v>
+        <v>7.37</v>
       </c>
       <c r="U46" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="V46" t="n">
-        <v>42.5</v>
+        <v>49.1</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>8:30:13</t>
+          <t>7:21:57</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>45427</v>
+        <v>45436</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5612,26 +5608,26 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>Trois corps – 01 – Le problème à trois corps</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Vance Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5641,7 +5637,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de Tschaï </t>
+          <t xml:space="preserve">Trois corps </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5650,68 +5646,68 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>266</v>
+        <v>745</v>
       </c>
       <c r="J47" t="n">
-        <v>260</v>
+        <v>708</v>
       </c>
       <c r="K47" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L47" t="n">
         <v>100</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P47" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q47" t="n">
-        <v>43.3</v>
+        <v>59</v>
       </c>
       <c r="R47" t="n">
-        <v>13755</v>
+        <v>30613</v>
       </c>
       <c r="S47" t="n">
-        <v>229.25</v>
+        <v>510.22</v>
       </c>
       <c r="T47" t="n">
-        <v>3.82</v>
+        <v>8.5</v>
       </c>
       <c r="U47" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="V47" t="n">
-        <v>38.2</v>
+        <v>42.5</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0:38</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>3:49:15</t>
+          <t>8:30:13</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>45415</v>
+        <v>45427</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5726,22 +5722,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mervyn Peake
-Patrick Reumaux</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>Vance Jack</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5751,12 +5746,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gormenghast </t>
+          <t xml:space="preserve">Cycle de Tschaï </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5765,16 +5760,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>883</v>
+        <v>266</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="K48" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -5783,50 +5778,50 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>43.3</v>
       </c>
       <c r="R48" t="n">
-        <v>14</v>
+        <v>13755</v>
       </c>
       <c r="S48" t="n">
-        <v>0.23</v>
+        <v>229.25</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="V48" t="n">
-        <v>0.2</v>
+        <v>38.2</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:38</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>3:49:15</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>45410</v>
+        <v>45415</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -5835,27 +5830,28 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>King Stephen</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5865,30 +5861,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t xml:space="preserve">Gormenghast </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I49" t="n">
-        <v>429</v>
+        <v>883</v>
       </c>
       <c r="J49" t="n">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5897,42 +5897,42 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>59.9</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>17983</v>
+        <v>14</v>
       </c>
       <c r="S49" t="n">
-        <v>299.72</v>
+        <v>0.23</v>
       </c>
       <c r="T49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>42.8</v>
+        <v>0.2</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>4:59:43</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Z49" s="2" t="n">
@@ -5945,27 +5945,27 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>King Stephen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5985,68 +5985,68 @@
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>572</v>
+        <v>429</v>
       </c>
       <c r="J50" t="n">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="K50" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L50" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P50" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q50" t="n">
-        <v>37.2</v>
+        <v>59.9</v>
       </c>
       <c r="R50" t="n">
-        <v>22707</v>
+        <v>17983</v>
       </c>
       <c r="S50" t="n">
-        <v>378.45</v>
+        <v>299.72</v>
       </c>
       <c r="T50" t="n">
-        <v>6.31</v>
+        <v>5</v>
       </c>
       <c r="U50" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="V50" t="n">
-        <v>29.1</v>
+        <v>42.8</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0:29</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>6:18:27</t>
+          <t>4:59:43</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -6055,37 +6055,37 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -6095,68 +6095,68 @@
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>888</v>
+        <v>572</v>
       </c>
       <c r="J51" t="n">
-        <v>870</v>
+        <v>484</v>
       </c>
       <c r="K51" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P51" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q51" t="n">
-        <v>43.5</v>
+        <v>37.2</v>
       </c>
       <c r="R51" t="n">
-        <v>37279</v>
+        <v>22707</v>
       </c>
       <c r="S51" t="n">
-        <v>621.3200000000001</v>
+        <v>378.45</v>
       </c>
       <c r="T51" t="n">
-        <v>10.36</v>
+        <v>6.31</v>
       </c>
       <c r="U51" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="V51" t="n">
-        <v>31.1</v>
+        <v>29.1</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:29</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>10:21:19</t>
+          <t>6:18:27</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -6165,32 +6165,32 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>la route</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6205,68 +6205,68 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>385</v>
+        <v>888</v>
       </c>
       <c r="J52" t="n">
-        <v>383</v>
+        <v>870</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L52" t="n">
         <v>100</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q52" t="n">
-        <v>191.5</v>
+        <v>43.5</v>
       </c>
       <c r="R52" t="n">
-        <v>11242</v>
+        <v>37279</v>
       </c>
       <c r="S52" t="n">
-        <v>187.37</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="T52" t="n">
-        <v>3.12</v>
+        <v>10.36</v>
       </c>
       <c r="U52" t="n">
-        <v>1.56</v>
+        <v>0.52</v>
       </c>
       <c r="V52" t="n">
-        <v>93.7</v>
+        <v>31.1</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>3:07:22</t>
+          <t>10:21:19</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -6281,21 +6281,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6315,68 +6315,68 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J53" t="n">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>10.2</v>
+        <v>191.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2566</v>
+        <v>11242</v>
       </c>
       <c r="S53" t="n">
-        <v>42.77</v>
+        <v>187.37</v>
       </c>
       <c r="T53" t="n">
-        <v>0.71</v>
+        <v>3.12</v>
       </c>
       <c r="U53" t="n">
-        <v>0.18</v>
+        <v>1.56</v>
       </c>
       <c r="V53" t="n">
-        <v>10.7</v>
+        <v>93.7</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>0:42:46</t>
+          <t>3:07:22</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z53" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
@@ -6391,21 +6391,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>Ravage</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6415,82 +6415,78 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les livres de la terre fracturée </t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>759</v>
+        <v>330</v>
       </c>
       <c r="J54" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1636</v>
+        <v>2566</v>
       </c>
       <c r="S54" t="n">
-        <v>27.27</v>
+        <v>42.77</v>
       </c>
       <c r="T54" t="n">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="U54" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="V54" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>0:42:46</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="Z54" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -6499,27 +6495,27 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>La cinquième saison</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora K. Jemisin</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora Jemisin</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6529,12 +6525,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le troupeau aveugle </t>
+          <t xml:space="preserve">Les livres de la terre fracturée </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6543,68 +6539,68 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>382</v>
+        <v>759</v>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K55" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L55" t="n">
         <v>3</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R55" t="n">
-        <v>610</v>
+        <v>1636</v>
       </c>
       <c r="S55" t="n">
-        <v>10.17</v>
+        <v>27.27</v>
       </c>
       <c r="T55" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="V55" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0:10:10</t>
+          <t>0:27:16</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z55" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -6613,27 +6609,27 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>Le troupeau aveugle, 1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6643,35 +6639,39 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t xml:space="preserve">Le troupeau aveugle </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I56" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -6681,191 +6681,191 @@
         <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R56" t="n">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="S56" t="n">
-        <v>12.5</v>
+        <v>10.17</v>
       </c>
       <c r="T56" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="U56" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="V56" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:10:10</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="Z56" s="2" t="n">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>histoire</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>28</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>400</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" t="n">
+        <v>750</v>
+      </c>
+      <c r="S57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>0:12:30</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>histoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>26</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>337</v>
-      </c>
-      <c r="J57" t="n">
-        <v>329</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>100</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>8</v>
-      </c>
-      <c r="P57" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="R57" t="n">
-        <v>16650</v>
-      </c>
-      <c r="S57" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V57" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0:34</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>4:37:30</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>25</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -6875,97 +6875,97 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>476</v>
+        <v>337</v>
       </c>
       <c r="J58" t="n">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="K58" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L58" t="n">
         <v>100</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q58" t="n">
-        <v>104.2</v>
+        <v>41.1</v>
       </c>
       <c r="R58" t="n">
-        <v>14530</v>
+        <v>16650</v>
       </c>
       <c r="S58" t="n">
-        <v>242.17</v>
+        <v>277.5</v>
       </c>
       <c r="T58" t="n">
-        <v>4.04</v>
+        <v>4.62</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="V58" t="n">
-        <v>60.5</v>
+        <v>34.7</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>1:00</t>
+          <t>0:34</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>4:02:10</t>
+          <t>4:37:30</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z58" s="2" t="n">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Red Rising</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6985,97 +6985,97 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>636</v>
+        <v>476</v>
       </c>
       <c r="J59" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="K59" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L59" t="n">
         <v>100</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>125</v>
+        <v>104.2</v>
       </c>
       <c r="R59" t="n">
-        <v>26174</v>
+        <v>14530</v>
       </c>
       <c r="S59" t="n">
-        <v>436.23</v>
+        <v>242.17</v>
       </c>
       <c r="T59" t="n">
-        <v>7.27</v>
+        <v>4.04</v>
       </c>
       <c r="U59" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>87.2</v>
+        <v>60.5</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>1:27</t>
+          <t>1:00</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>7:16:14</t>
+          <t>4:02:10</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z59" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Il n'y a pas de parent parfait</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -7095,97 +7095,97 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>445</v>
+        <v>636</v>
       </c>
       <c r="J60" t="n">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="K60" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L60" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>34.6</v>
+        <v>125</v>
       </c>
       <c r="R60" t="n">
-        <v>12721</v>
+        <v>26174</v>
       </c>
       <c r="S60" t="n">
-        <v>212.02</v>
+        <v>436.23</v>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>7.27</v>
       </c>
       <c r="U60" t="n">
-        <v>0.44</v>
+        <v>1.45</v>
       </c>
       <c r="V60" t="n">
-        <v>26.5</v>
+        <v>87.2</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>1:27</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>3:32:01</t>
+          <t>7:16:14</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z60" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -7205,87 +7205,87 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>1332</v>
+        <v>445</v>
       </c>
       <c r="J61" t="n">
-        <v>1127</v>
+        <v>277</v>
       </c>
       <c r="K61" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L61" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P61" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q61" t="n">
-        <v>66.3</v>
+        <v>34.6</v>
       </c>
       <c r="R61" t="n">
-        <v>47893</v>
+        <v>12721</v>
       </c>
       <c r="S61" t="n">
-        <v>798.22</v>
+        <v>212.02</v>
       </c>
       <c r="T61" t="n">
-        <v>13.3</v>
+        <v>3.53</v>
       </c>
       <c r="U61" t="n">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="V61" t="n">
-        <v>47</v>
+        <v>26.5</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0:46</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>13:18:13</t>
+          <t>3:32:01</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z61" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hypérion v1.1</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7310,77 +7310,73 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Cantos d'Hypérion </t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>1034</v>
+        <v>1332</v>
       </c>
       <c r="J62" t="n">
-        <v>1007</v>
+        <v>1127</v>
       </c>
       <c r="K62" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q62" t="n">
-        <v>62.9</v>
+        <v>66.3</v>
       </c>
       <c r="R62" t="n">
-        <v>45693</v>
+        <v>47893</v>
       </c>
       <c r="S62" t="n">
-        <v>761.55</v>
+        <v>798.22</v>
       </c>
       <c r="T62" t="n">
-        <v>12.69</v>
+        <v>13.3</v>
       </c>
       <c r="U62" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="V62" t="n">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0:47</t>
+          <t>0:46</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>12:41:33</t>
+          <t>13:18:13</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z62" s="2" t="n">
-        <v>45319</v>
+        <v>45344</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -7395,141 +7391,145 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Hypérion v1.1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t xml:space="preserve">Les Cantos d'Hypérion </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I63" t="n">
-        <v>299</v>
+        <v>1034</v>
       </c>
       <c r="J63" t="n">
-        <v>263</v>
+        <v>1007</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L63" t="n">
         <v>100</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P63" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q63" t="n">
-        <v>43.8</v>
+        <v>62.9</v>
       </c>
       <c r="R63" t="n">
-        <v>16035</v>
+        <v>45693</v>
       </c>
       <c r="S63" t="n">
-        <v>267.25</v>
+        <v>761.55</v>
       </c>
       <c r="T63" t="n">
-        <v>4.45</v>
+        <v>12.69</v>
       </c>
       <c r="U63" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="V63" t="n">
-        <v>44.5</v>
+        <v>47.6</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0:44</t>
+          <t>0:47</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>4:27:15</t>
+          <t>12:41:33</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="Z63" s="2" t="n">
-        <v>45305</v>
+        <v>45319</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>Your Brain’s Not Broken</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Tamara Rosier</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>non-fiction/santé</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -7539,59 +7539,59 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>675</v>
+        <v>299</v>
       </c>
       <c r="J64" t="n">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="K64" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>52.2</v>
+        <v>43.8</v>
       </c>
       <c r="R64" t="n">
-        <v>18029</v>
+        <v>16035</v>
       </c>
       <c r="S64" t="n">
-        <v>300.48</v>
+        <v>267.25</v>
       </c>
       <c r="T64" t="n">
-        <v>5.01</v>
+        <v>4.45</v>
       </c>
       <c r="U64" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="V64" t="n">
-        <v>37.6</v>
+        <v>44.5</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:44</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>4:27:15</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="Z64" s="2" t="n">
-        <v>45300</v>
+        <v>45305</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -7609,37 +7609,37 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>santé</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -7649,102 +7649,102 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="J65" t="n">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="K65" t="n">
         <v>1.4</v>
       </c>
       <c r="L65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q65" t="n">
-        <v>28.9</v>
+        <v>52.2</v>
       </c>
       <c r="R65" t="n">
-        <v>12240</v>
+        <v>18029</v>
       </c>
       <c r="S65" t="n">
-        <v>204</v>
+        <v>300.48</v>
       </c>
       <c r="T65" t="n">
-        <v>3.4</v>
+        <v>5.01</v>
       </c>
       <c r="U65" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="V65" t="n">
-        <v>20.4</v>
+        <v>37.6</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>5:00:29</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z65" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7759,64 +7759,64 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>809</v>
+        <v>449</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="K66" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>28.9</v>
       </c>
       <c r="R66" t="n">
-        <v>22</v>
+        <v>12240</v>
       </c>
       <c r="S66" t="n">
-        <v>0.37</v>
+        <v>204</v>
       </c>
       <c r="T66" t="n">
-        <v>0.01</v>
+        <v>3.4</v>
       </c>
       <c r="U66" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4</v>
+        <v>20.4</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:20</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>3:24:00</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z66" s="2" t="n">
@@ -7835,26 +7835,26 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7869,25 +7869,25 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>68</v>
+        <v>809</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="L67" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -7897,40 +7897,40 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="S67" t="n">
-        <v>6.47</v>
+        <v>0.37</v>
       </c>
       <c r="T67" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="U67" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="V67" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="Z67" s="2" t="n">
-        <v>45257</v>
+        <v>45299</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
@@ -7945,26 +7945,26 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Le crime de l'Orient-Express</t>
+          <t>Let's Get Together</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Christie, Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Christie Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7974,29 +7974,25 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">l'Orient </t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="J68" t="n">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8005,42 +8001,42 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>47.1</v>
+        <v>8</v>
       </c>
       <c r="R68" t="n">
-        <v>13191</v>
+        <v>388</v>
       </c>
       <c r="S68" t="n">
-        <v>219.85</v>
+        <v>6.47</v>
       </c>
       <c r="T68" t="n">
-        <v>3.66</v>
+        <v>0.11</v>
       </c>
       <c r="U68" t="n">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="V68" t="n">
-        <v>31.4</v>
+        <v>6.5</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>3:39:51</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="Z68" s="2" t="n">
@@ -8052,6 +8048,120 @@
         </is>
       </c>
       <c r="AB68" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Le crime de l'Orient-Express</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Christie, Agatha</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Christie Agatha</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">l'Orient </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>349</v>
+      </c>
+      <c r="J69" t="n">
+        <v>330</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L69" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>7</v>
+      </c>
+      <c r="P69" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>13191</v>
+      </c>
+      <c r="S69" t="n">
+        <v>219.85</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V69" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>0:31</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>3:39:51</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="Z69" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
         <is>
           <t>SF</t>
         </is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7505,31 +7505,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Your Brain’s Not Broken</t>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tamara Rosier</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -7539,59 +7539,59 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>299</v>
+        <v>675</v>
       </c>
       <c r="J64" t="n">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>2024-01-14</t>
-        </is>
-      </c>
       <c r="O64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q64" t="n">
-        <v>43.8</v>
+        <v>52.2</v>
       </c>
       <c r="R64" t="n">
-        <v>16035</v>
+        <v>18029</v>
       </c>
       <c r="S64" t="n">
-        <v>267.25</v>
+        <v>300.48</v>
       </c>
       <c r="T64" t="n">
-        <v>4.45</v>
+        <v>5.01</v>
       </c>
       <c r="U64" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="V64" t="n">
-        <v>44.5</v>
+        <v>37.6</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0:44</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>4:27:15</t>
+          <t>5:00:29</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="Z64" s="2" t="n">
-        <v>45305</v>
+        <v>45300</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -7609,37 +7609,37 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -7649,102 +7649,102 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>675</v>
+        <v>449</v>
       </c>
       <c r="J65" t="n">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="K65" t="n">
         <v>1.4</v>
       </c>
       <c r="L65" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="O65" t="n">
+        <v>45</v>
+      </c>
+      <c r="P65" t="n">
         <v>10</v>
       </c>
-      <c r="P65" t="n">
-        <v>8</v>
-      </c>
       <c r="Q65" t="n">
-        <v>52.2</v>
+        <v>28.9</v>
       </c>
       <c r="R65" t="n">
-        <v>18029</v>
+        <v>12240</v>
       </c>
       <c r="S65" t="n">
-        <v>300.48</v>
+        <v>204</v>
       </c>
       <c r="T65" t="n">
-        <v>5.01</v>
+        <v>3.4</v>
       </c>
       <c r="U65" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="V65" t="n">
-        <v>37.6</v>
+        <v>20.4</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:20</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>3:24:00</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z65" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Van Vogt</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7759,64 +7759,64 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>449</v>
+        <v>809</v>
       </c>
       <c r="J66" t="n">
-        <v>289</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="L66" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>28.9</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>12240</v>
+        <v>22</v>
       </c>
       <c r="S66" t="n">
-        <v>204</v>
+        <v>0.37</v>
       </c>
       <c r="T66" t="n">
-        <v>3.4</v>
+        <v>0.01</v>
       </c>
       <c r="U66" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="V66" t="n">
-        <v>20.4</v>
+        <v>0.4</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="Z66" s="2" t="n">
@@ -7835,26 +7835,26 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>Let's Get Together</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7869,25 +7869,25 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>809</v>
+        <v>68</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K67" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -7897,40 +7897,40 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R67" t="n">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="S67" t="n">
-        <v>0.37</v>
+        <v>6.47</v>
       </c>
       <c r="T67" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="U67" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="Z67" s="2" t="n">
-        <v>45299</v>
+        <v>45257</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
@@ -7945,26 +7945,26 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>Le crime de l'Orient-Express</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Christie, Agatha</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Christie Agatha</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7974,69 +7974,73 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t xml:space="preserve">l'Orient </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I68" t="n">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="K68" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>8</v>
+        <v>47.1</v>
       </c>
       <c r="R68" t="n">
-        <v>388</v>
+        <v>13191</v>
       </c>
       <c r="S68" t="n">
-        <v>6.47</v>
+        <v>219.85</v>
       </c>
       <c r="T68" t="n">
-        <v>0.11</v>
+        <v>3.66</v>
       </c>
       <c r="U68" t="n">
-        <v>0.11</v>
+        <v>0.52</v>
       </c>
       <c r="V68" t="n">
-        <v>6.5</v>
+        <v>31.4</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>3:39:51</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="Z68" s="2" t="n">
@@ -8048,120 +8052,6 @@
         </is>
       </c>
       <c r="AB68" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Le crime de l'Orient-Express</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Christie, Agatha</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Christie Agatha</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>fiction/SF</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">l'Orient </t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>349</v>
-      </c>
-      <c r="J69" t="n">
-        <v>330</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L69" t="n">
-        <v>100</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>7</v>
-      </c>
-      <c r="P69" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="R69" t="n">
-        <v>13191</v>
-      </c>
-      <c r="S69" t="n">
-        <v>219.85</v>
-      </c>
-      <c r="T69" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V69" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0:31</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>3:39:51</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>1934</t>
-        </is>
-      </c>
-      <c r="Z69" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
         <is>
           <t>SF</t>
         </is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -581,21 +581,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La Société protectrice des kaijus</t>
+          <t>Journal d'un AssaSynth, Tome 2 : Schémas artificiels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -610,73 +610,77 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="J2" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="K2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.8</v>
+        <v>21.5</v>
       </c>
       <c r="R2" t="n">
-        <v>7271</v>
+        <v>2232</v>
       </c>
       <c r="S2" t="n">
-        <v>121.18</v>
+        <v>37.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>0.62</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="V2" t="n">
-        <v>30.3</v>
+        <v>18.6</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:30</t>
+          <t>0:18</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2:01:11</t>
+          <t>0:37:12</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45659</v>
+        <v>45661</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -691,31 +695,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Résister</t>
+          <t>La Société protectrice des kaijus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>non-fiction/société</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,107 +729,107 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="J3" t="n">
-        <v>115</v>
+        <v>428</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L3" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>3827</v>
+        <v>16246</v>
       </c>
       <c r="S3" t="n">
-        <v>63.78</v>
+        <v>270.77</v>
       </c>
       <c r="T3" t="n">
-        <v>1.06</v>
+        <v>4.51</v>
       </c>
       <c r="U3" t="n">
-        <v>0.27</v>
+        <v>0.9</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>54.2</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0:16</t>
+          <t>0:54</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1:03:47</t>
+          <t>4:30:46</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45656</v>
+        <v>45660</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>société</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Superméchant débutant</t>
+          <t>Résister</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/société</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -835,59 +839,59 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="J4" t="n">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="K4" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.40000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="R4" t="n">
-        <v>15425</v>
+        <v>3827</v>
       </c>
       <c r="S4" t="n">
-        <v>257.08</v>
+        <v>63.78</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
-        <v>0.86</v>
+        <v>0.27</v>
       </c>
       <c r="V4" t="n">
-        <v>51.4</v>
+        <v>15.9</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:51</t>
+          <t>0:16</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4:17:05</t>
+          <t>1:03:47</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -896,36 +900,36 @@
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45655</v>
+        <v>45656</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>société</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
+          <t>Superméchant débutant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tj Klune</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Klune</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -935,7 +939,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -945,68 +949,68 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>699</v>
+        <v>379</v>
       </c>
       <c r="J5" t="n">
-        <v>690</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>138</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>21762</v>
+        <v>15425</v>
       </c>
       <c r="S5" t="n">
-        <v>362.7</v>
+        <v>257.08</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04</v>
+        <v>4.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="V5" t="n">
-        <v>72.5</v>
+        <v>51.4</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1:12</t>
+          <t>0:51</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>6:02:42</t>
+          <t>4:17:05</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45651</v>
+        <v>45655</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1015,27 +1019,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
+          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Tj Klune</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Klune</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1050,77 +1054,73 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encyclopédie féerique </t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>491</v>
+        <v>699</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>690</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L6" t="n">
         <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.8</v>
+        <v>138</v>
       </c>
       <c r="R6" t="n">
-        <v>23592</v>
+        <v>21762</v>
       </c>
       <c r="S6" t="n">
-        <v>393.2</v>
+        <v>362.7</v>
       </c>
       <c r="T6" t="n">
-        <v>6.55</v>
+        <v>6.04</v>
       </c>
       <c r="U6" t="n">
-        <v>0.82</v>
+        <v>1.21</v>
       </c>
       <c r="V6" t="n">
-        <v>49.2</v>
+        <v>72.5</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>1:12</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6:33:12</t>
+          <t>6:02:42</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>45645</v>
+        <v>45651</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1135,11 +1135,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L’Encyclopédie féerique d’Emily Wilde</t>
+          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1164,29 +1164,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily Wilde </t>
+          <t xml:space="preserve">Encyclopédie féerique </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="J7" t="n">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L7" t="n">
         <v>100</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1195,37 +1195,37 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.5</v>
+        <v>58.8</v>
       </c>
       <c r="R7" t="n">
-        <v>20584</v>
+        <v>23592</v>
       </c>
       <c r="S7" t="n">
-        <v>343.07</v>
+        <v>393.2</v>
       </c>
       <c r="T7" t="n">
-        <v>5.72</v>
+        <v>6.55</v>
       </c>
       <c r="U7" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="V7" t="n">
-        <v>57.2</v>
+        <v>49.2</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0:57</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>5:43:04</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1249,21 +1249,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blackwater T6 : Pluie</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1273,82 +1273,82 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Emily Wilde </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>283</v>
+        <v>538</v>
       </c>
       <c r="J8" t="n">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="K8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L8" t="n">
         <v>100</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>273</v>
+        <v>85.5</v>
       </c>
       <c r="R8" t="n">
-        <v>9999</v>
+        <v>20584</v>
       </c>
       <c r="S8" t="n">
-        <v>166.65</v>
+        <v>343.07</v>
       </c>
       <c r="T8" t="n">
-        <v>2.78</v>
+        <v>5.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.78</v>
+        <v>0.95</v>
       </c>
       <c r="V8" t="n">
-        <v>166.6</v>
+        <v>57.2</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2:46</t>
+          <t>0:57</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2:46:39</t>
+          <t>5:43:04</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>45637</v>
+        <v>45645</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1357,27 +1357,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
+          <t>Blackwater T6 : Pluie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1387,20 +1387,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="J9" t="n">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="K9" t="n">
         <v>1.6</v>
@@ -1410,55 +1414,55 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="R9" t="n">
-        <v>19151</v>
+        <v>9999</v>
       </c>
       <c r="S9" t="n">
-        <v>319.18</v>
+        <v>166.65</v>
       </c>
       <c r="T9" t="n">
-        <v>5.32</v>
+        <v>2.78</v>
       </c>
       <c r="U9" t="n">
-        <v>0.76</v>
+        <v>2.78</v>
       </c>
       <c r="V9" t="n">
-        <v>45.6</v>
+        <v>166.6</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>2:46</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>5:19:11</t>
+          <t>2:46:39</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1467,27 +1471,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1497,82 +1501,78 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="J10" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="K10" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.3</v>
+        <v>72</v>
       </c>
       <c r="R10" t="n">
-        <v>8728</v>
+        <v>19151</v>
       </c>
       <c r="S10" t="n">
-        <v>145.47</v>
+        <v>319.18</v>
       </c>
       <c r="T10" t="n">
-        <v>2.42</v>
+        <v>5.32</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="V10" t="n">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>5:19:11</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1581,27 +1581,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Défaillances systèmes</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1611,82 +1611,82 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="J11" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="K11" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="L11" t="n">
         <v>100</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.8</v>
+        <v>93.3</v>
       </c>
       <c r="R11" t="n">
-        <v>7599</v>
+        <v>8728</v>
       </c>
       <c r="S11" t="n">
-        <v>126.65</v>
+        <v>145.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="U11" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>31.7</v>
+        <v>48.5</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2:06:39</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1695,27 +1695,27 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Minimalisme numérique</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1725,26 +1725,30 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1753,79 +1757,79 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>22</v>
+        <v>42.8</v>
       </c>
       <c r="R12" t="n">
-        <v>531</v>
+        <v>7599</v>
       </c>
       <c r="S12" t="n">
-        <v>8.85</v>
+        <v>126.65</v>
       </c>
       <c r="T12" t="n">
-        <v>0.15</v>
+        <v>2.11</v>
       </c>
       <c r="U12" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="V12" t="n">
-        <v>8.800000000000001</v>
+        <v>31.7</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>2:06:39</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tehanu</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1835,34 +1839,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J13" t="n">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K13" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1871,42 +1875,42 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.6</v>
+        <v>54.6</v>
       </c>
       <c r="R13" t="n">
-        <v>17096</v>
+        <v>17648</v>
       </c>
       <c r="S13" t="n">
-        <v>284.93</v>
+        <v>294.13</v>
       </c>
       <c r="T13" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="U13" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="V13" t="n">
-        <v>28.5</v>
+        <v>42</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>4:44:56</t>
+          <t>4:54:08</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z13" s="2" t="n">
@@ -1919,27 +1923,27 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1949,34 +1953,30 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>400</v>
       </c>
       <c r="J14" t="n">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1985,42 +1985,42 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.6</v>
+        <v>22</v>
       </c>
       <c r="R14" t="n">
-        <v>17648</v>
+        <v>531</v>
       </c>
       <c r="S14" t="n">
-        <v>294.13</v>
+        <v>8.85</v>
       </c>
       <c r="T14" t="n">
-        <v>4.9</v>
+        <v>0.15</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="V14" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>4:54:08</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z14" s="2" t="n">
@@ -2028,32 +2028,32 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2068,73 +2068,77 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I15" t="n">
-        <v>636</v>
+        <v>351</v>
       </c>
       <c r="J15" t="n">
-        <v>572</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.6</v>
+        <v>34.6</v>
       </c>
       <c r="R15" t="n">
-        <v>20106</v>
+        <v>17096</v>
       </c>
       <c r="S15" t="n">
-        <v>335.1</v>
+        <v>284.93</v>
       </c>
       <c r="T15" t="n">
-        <v>5.58</v>
+        <v>4.75</v>
       </c>
       <c r="U15" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="V15" t="n">
-        <v>37.2</v>
+        <v>28.5</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>5:35:06</t>
+          <t>4:44:56</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45608</v>
+        <v>45620</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2149,21 +2153,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2173,24 +2177,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>257</v>
+        <v>636</v>
       </c>
       <c r="J16" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="K16" t="n">
         <v>1.7</v>
@@ -2200,55 +2200,55 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.5</v>
+        <v>63.6</v>
       </c>
       <c r="R16" t="n">
-        <v>8578</v>
+        <v>20106</v>
       </c>
       <c r="S16" t="n">
-        <v>142.97</v>
+        <v>335.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>5.58</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="V16" t="n">
-        <v>23.8</v>
+        <v>37.2</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>5:35:06</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>45598</v>
+        <v>45608</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2257,27 +2257,27 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2287,82 +2287,82 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="K17" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L17" t="n">
         <v>100</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.5</v>
+        <v>41.5</v>
       </c>
       <c r="R17" t="n">
-        <v>22254</v>
+        <v>8578</v>
       </c>
       <c r="S17" t="n">
-        <v>370.9</v>
+        <v>142.97</v>
       </c>
       <c r="T17" t="n">
-        <v>6.18</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="V17" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>2:22:58</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>45588</v>
+        <v>45598</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2371,27 +2371,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2415,50 +2415,50 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="J18" t="n">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.2</v>
+        <v>32.5</v>
       </c>
       <c r="R18" t="n">
-        <v>8572</v>
+        <v>22254</v>
       </c>
       <c r="S18" t="n">
-        <v>142.87</v>
+        <v>370.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>6.18</v>
       </c>
       <c r="U18" t="n">
         <v>0.48</v>
       </c>
       <c r="V18" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>6:10:54</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2485,27 +2485,27 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2515,24 +2515,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="J19" t="n">
-        <v>487</v>
+        <v>206</v>
       </c>
       <c r="K19" t="n">
         <v>1.4</v>
@@ -2542,55 +2542,55 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="R19" t="n">
-        <v>21135</v>
+        <v>8572</v>
       </c>
       <c r="S19" t="n">
-        <v>352.25</v>
+        <v>142.87</v>
       </c>
       <c r="T19" t="n">
-        <v>5.87</v>
+        <v>2.38</v>
       </c>
       <c r="U19" t="n">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
       <c r="V19" t="n">
-        <v>70.40000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>2:22:52</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2599,17 +2599,17 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2639,72 +2639,72 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>789</v>
+        <v>504</v>
       </c>
       <c r="J20" t="n">
-        <v>779</v>
+        <v>487</v>
       </c>
       <c r="K20" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>129.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>26925</v>
+        <v>21135</v>
       </c>
       <c r="S20" t="n">
-        <v>448.75</v>
+        <v>352.25</v>
       </c>
       <c r="T20" t="n">
-        <v>7.48</v>
+        <v>5.87</v>
       </c>
       <c r="U20" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V20" t="n">
-        <v>74.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>5:52:15</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>45564</v>
+        <v>45568</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2719,11 +2719,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2748,77 +2748,77 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>139</v>
+        <v>789</v>
       </c>
       <c r="J21" t="n">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>27</v>
+        <v>129.8</v>
       </c>
       <c r="R21" t="n">
-        <v>5787</v>
+        <v>26925</v>
       </c>
       <c r="S21" t="n">
-        <v>96.45</v>
+        <v>448.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>7.48</v>
       </c>
       <c r="U21" t="n">
-        <v>0.32</v>
+        <v>1.25</v>
       </c>
       <c r="V21" t="n">
-        <v>19.3</v>
+        <v>74.8</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>7:28:45</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -2833,21 +2833,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2857,78 +2857,82 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="J22" t="n">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="K22" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L22" t="n">
         <v>100</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P22" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.2</v>
+        <v>27</v>
       </c>
       <c r="R22" t="n">
-        <v>21326</v>
+        <v>5787</v>
       </c>
       <c r="S22" t="n">
-        <v>355.43</v>
+        <v>96.45</v>
       </c>
       <c r="T22" t="n">
-        <v>5.92</v>
+        <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="V22" t="n">
-        <v>22.2</v>
+        <v>19.3</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>1:36:27</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>45544</v>
+        <v>45558</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2937,54 +2941,50 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="J23" t="n">
-        <v>208</v>
+        <v>467</v>
       </c>
       <c r="K23" t="n">
         <v>1.3</v>
@@ -2994,55 +2994,55 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.6</v>
+        <v>29.2</v>
       </c>
       <c r="R23" t="n">
-        <v>9457</v>
+        <v>21326</v>
       </c>
       <c r="S23" t="n">
-        <v>157.62</v>
+        <v>355.43</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>5.92</v>
       </c>
       <c r="U23" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="V23" t="n">
-        <v>31.5</v>
+        <v>22.2</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:55:26</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45524</v>
+        <v>45544</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3051,17 +3051,17 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3091,63 +3091,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J24" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K24" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.5</v>
+        <v>41.6</v>
       </c>
       <c r="R24" t="n">
-        <v>9673</v>
+        <v>9457</v>
       </c>
       <c r="S24" t="n">
-        <v>161.22</v>
+        <v>157.62</v>
       </c>
       <c r="T24" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="V24" t="n">
-        <v>40.3</v>
+        <v>31.5</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>2:37:37</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45522</v>
+        <v>45524</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3171,36 +3171,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3209,68 +3209,68 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>823</v>
+        <v>248</v>
       </c>
       <c r="J25" t="n">
-        <v>815</v>
+        <v>234</v>
       </c>
       <c r="K25" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L25" t="n">
         <v>100</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9</v>
+        <v>58.5</v>
       </c>
       <c r="R25" t="n">
-        <v>44807</v>
+        <v>9673</v>
       </c>
       <c r="S25" t="n">
-        <v>746.78</v>
+        <v>161.22</v>
       </c>
       <c r="T25" t="n">
-        <v>12.45</v>
+        <v>2.69</v>
       </c>
       <c r="U25" t="n">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="V25" t="n">
-        <v>93.3</v>
+        <v>40.3</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>2:41:13</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -3279,27 +3279,27 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3309,26 +3309,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I26" t="n">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>815</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3337,89 +3341,89 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>101.9</v>
       </c>
       <c r="R26" t="n">
-        <v>94</v>
+        <v>44807</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>746.78</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03</v>
+        <v>12.45</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01</v>
+        <v>1.56</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8</v>
+        <v>93.3</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>12:26:47</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3429,102 +3433,102 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3539,68 +3543,68 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="J28" t="n">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>114.5</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>16163</v>
+        <v>216</v>
       </c>
       <c r="S28" t="n">
-        <v>269.38</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>4.49</v>
+        <v>0.06</v>
       </c>
       <c r="U28" t="n">
-        <v>1.12</v>
+        <v>0.03</v>
       </c>
       <c r="V28" t="n">
-        <v>67.3</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -3615,21 +3619,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3639,7 +3643,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3649,68 +3653,68 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>798</v>
+        <v>471</v>
       </c>
       <c r="J29" t="n">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="K29" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L29" t="n">
         <v>100</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.8</v>
+        <v>114.5</v>
       </c>
       <c r="R29" t="n">
-        <v>25131</v>
+        <v>16163</v>
       </c>
       <c r="S29" t="n">
-        <v>418.85</v>
+        <v>269.38</v>
       </c>
       <c r="T29" t="n">
-        <v>6.98</v>
+        <v>4.49</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="V29" t="n">
-        <v>41.9</v>
+        <v>67.3</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>6:58:51</t>
+          <t>4:29:23</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -3719,27 +3723,27 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3759,25 +3763,25 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>397</v>
+        <v>798</v>
       </c>
       <c r="J30" t="n">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="K30" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
         <v>100</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3787,40 +3791,40 @@
         <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.7</v>
+        <v>76.8</v>
       </c>
       <c r="R30" t="n">
-        <v>15807</v>
+        <v>25131</v>
       </c>
       <c r="S30" t="n">
-        <v>263.45</v>
+        <v>418.85</v>
       </c>
       <c r="T30" t="n">
-        <v>4.39</v>
+        <v>6.98</v>
       </c>
       <c r="U30" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="V30" t="n">
-        <v>26.3</v>
+        <v>41.9</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>4:23:27</t>
+          <t>6:58:51</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3835,21 +3839,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3859,7 +3863,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3869,59 +3873,59 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="J31" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="K31" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L31" t="n">
         <v>100</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.4</v>
+        <v>38.7</v>
       </c>
       <c r="R31" t="n">
-        <v>11415</v>
+        <v>15807</v>
       </c>
       <c r="S31" t="n">
-        <v>190.25</v>
+        <v>263.45</v>
       </c>
       <c r="T31" t="n">
-        <v>3.17</v>
+        <v>4.39</v>
       </c>
       <c r="U31" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="V31" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>4:23:27</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3930,7 +3934,7 @@
         </is>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45480</v>
+        <v>45491</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3939,7 +3943,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
@@ -4059,31 +4063,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4093,16 +4097,16 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4111,89 +4115,89 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>46.4</v>
       </c>
       <c r="R33" t="n">
-        <v>74</v>
+        <v>11415</v>
       </c>
       <c r="S33" t="n">
-        <v>1.23</v>
+        <v>190.25</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02</v>
+        <v>3.17</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="V33" t="n">
-        <v>1.2</v>
+        <v>27.2</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4203,97 +4207,97 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="J34" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>17475</v>
+        <v>74</v>
       </c>
       <c r="S34" t="n">
-        <v>291.25</v>
+        <v>1.23</v>
       </c>
       <c r="T34" t="n">
-        <v>4.85</v>
+        <v>0.02</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V34" t="n">
-        <v>48.5</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4303,7 +4307,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4313,16 +4317,16 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="J35" t="n">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="K35" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4331,50 +4335,50 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>25</v>
+        <v>72.5</v>
       </c>
       <c r="R35" t="n">
-        <v>865</v>
+        <v>17475</v>
       </c>
       <c r="S35" t="n">
-        <v>14.42</v>
+        <v>291.25</v>
       </c>
       <c r="T35" t="n">
-        <v>0.24</v>
+        <v>4.85</v>
       </c>
       <c r="U35" t="n">
-        <v>0.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V35" t="n">
-        <v>14.4</v>
+        <v>48.5</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>4:51:15</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>45464</v>
+        <v>45472</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -4383,27 +4387,27 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4423,68 +4427,68 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>157</v>
+        <v>523</v>
       </c>
       <c r="J36" t="n">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L36" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R36" t="n">
-        <v>7302</v>
+        <v>865</v>
       </c>
       <c r="S36" t="n">
-        <v>121.7</v>
+        <v>14.42</v>
       </c>
       <c r="T36" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="U36" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
       <c r="V36" t="n">
-        <v>40.6</v>
+        <v>14.4</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>0:14:25</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -4499,22 +4503,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4534,68 +4537,68 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="J37" t="n">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="K37" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L37" t="n">
         <v>100</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.3</v>
+        <v>51</v>
       </c>
       <c r="R37" t="n">
-        <v>9644</v>
+        <v>7302</v>
       </c>
       <c r="S37" t="n">
-        <v>160.73</v>
+        <v>121.7</v>
       </c>
       <c r="T37" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="U37" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="V37" t="n">
-        <v>26.8</v>
+        <v>40.6</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -4610,21 +4613,22 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4634,82 +4638,78 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="K38" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.5</v>
+        <v>44.3</v>
       </c>
       <c r="R38" t="n">
-        <v>267</v>
+        <v>9644</v>
       </c>
       <c r="S38" t="n">
-        <v>4.45</v>
+        <v>160.73</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="V38" t="n">
-        <v>2.2</v>
+        <v>26.8</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>2:40:44</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>45454</v>
+        <v>45459</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4718,27 +4718,27 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4748,26 +4748,30 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I39" t="n">
-        <v>86</v>
+        <v>542</v>
       </c>
       <c r="J39" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4776,50 +4780,50 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>82</v>
+        <v>3.5</v>
       </c>
       <c r="R39" t="n">
-        <v>3218</v>
+        <v>267</v>
       </c>
       <c r="S39" t="n">
-        <v>53.63</v>
+        <v>4.45</v>
       </c>
       <c r="T39" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U39" t="n">
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="V39" t="n">
-        <v>53.6</v>
+        <v>2.2</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -4828,37 +4832,37 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4868,20 +4872,20 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J40" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K40" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L40" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4890,42 +4894,42 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.5</v>
+        <v>82</v>
       </c>
       <c r="R40" t="n">
-        <v>2525</v>
+        <v>3218</v>
       </c>
       <c r="S40" t="n">
-        <v>42.08</v>
+        <v>53.63</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="U40" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="V40" t="n">
-        <v>10.5</v>
+        <v>53.6</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:53:38</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z40" s="2" t="n">
@@ -4938,37 +4942,37 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Michael Joseph Ferguson</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Michael Joseph</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>non-fiction/santé</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4978,77 +4982,77 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>819</v>
+        <v>58</v>
       </c>
       <c r="J41" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K41" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="R41" t="n">
-        <v>834</v>
+        <v>2525</v>
       </c>
       <c r="S41" t="n">
-        <v>13.9</v>
+        <v>42.08</v>
       </c>
       <c r="T41" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="V41" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>santé</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
@@ -5278,26 +5282,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5312,20 +5316,20 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="J44" t="n">
-        <v>447</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1.7</v>
+        <v>12.5</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5334,42 +5338,42 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>15965</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>266.08</v>
+        <v>0.08</v>
       </c>
       <c r="T44" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>88.7</v>
+        <v>0.1</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="Z44" s="2" t="n">
@@ -5388,26 +5392,26 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5422,64 +5426,64 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="K45" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>15965</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08</v>
+        <v>266.08</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1</v>
+        <v>88.7</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>4:26:05</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="Z45" s="2" t="n">

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -622,13 +622,13 @@
         <v>156</v>
       </c>
       <c r="J2" t="n">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="K2" t="n">
         <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -637,41 +637,41 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.5</v>
+        <v>49.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2232</v>
+        <v>7274</v>
       </c>
       <c r="S2" t="n">
-        <v>37.2</v>
+        <v>121.23</v>
       </c>
       <c r="T2" t="n">
-        <v>0.62</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="V2" t="n">
-        <v>18.6</v>
+        <v>40.4</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:18</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0:37:12</t>
+          <t>2:01:14</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45661</v>
+        <v>45662</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>

--- a/data_sources_from_python/df_book_updated.xlsx
+++ b/data_sources_from_python/df_book_updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,21 +581,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>roman secret 4 - L'ensoleillé</t>
+          <t>Roi Sorcier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -615,68 +615,68 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>732</v>
+        <v>634</v>
       </c>
       <c r="J2" t="n">
-        <v>693</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>231</v>
+        <v>17.5</v>
       </c>
       <c r="R2" t="n">
-        <v>24423</v>
+        <v>1691</v>
       </c>
       <c r="S2" t="n">
-        <v>407.05</v>
+        <v>28.18</v>
       </c>
       <c r="T2" t="n">
-        <v>6.78</v>
+        <v>0.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7</v>
+        <v>14.1</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2:15</t>
+          <t>0:13</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6:47:03</t>
+          <t>0:28:11</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45680</v>
+        <v>45685</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>402</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -747,41 +747,41 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>15251</v>
       </c>
       <c r="S3" t="n">
-        <v>0.15</v>
+        <v>254.18</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2</v>
+        <v>50.8</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:51</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0:00:09</t>
+          <t>4:14:11</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -805,21 +805,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les Flammes de l'empire: L'Interdépendance, T2</t>
+          <t>roman secret 4 - L'ensoleillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -829,82 +829,78 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Interdépendance </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>462</v>
+        <v>732</v>
       </c>
       <c r="J4" t="n">
-        <v>444</v>
+        <v>693</v>
       </c>
       <c r="K4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="R4" t="n">
-        <v>16151</v>
+        <v>24423</v>
       </c>
       <c r="S4" t="n">
-        <v>269.18</v>
+        <v>407.05</v>
       </c>
       <c r="T4" t="n">
-        <v>4.49</v>
+        <v>6.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.12</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>67.3</v>
+        <v>135.7</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>2:15</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4:29:11</t>
+          <t>6:47:03</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45678</v>
+        <v>45680</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -913,17 +909,17 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L'effondrement de l'empire</t>
+          <t>Les Flammes de l'empire: L'Interdépendance, T2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -953,29 +949,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="J5" t="n">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="K5" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -985,40 +981,40 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="R5" t="n">
-        <v>18746</v>
+        <v>16151</v>
       </c>
       <c r="S5" t="n">
-        <v>312.43</v>
+        <v>269.18</v>
       </c>
       <c r="T5" t="n">
-        <v>5.21</v>
+        <v>4.49</v>
       </c>
       <c r="U5" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="V5" t="n">
-        <v>78.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1:18</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>5:12:26</t>
+          <t>4:29:11</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>45675</v>
+        <v>45678</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1033,21 +1029,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La Machine à explorer le temps</t>
+          <t>L'effondrement de l'empire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>H. G. Wells</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wells</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1062,73 +1058,77 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t xml:space="preserve">L'Interdépendance </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>388</v>
       </c>
       <c r="K6" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.5</v>
+        <v>97</v>
       </c>
       <c r="R6" t="n">
-        <v>736</v>
+        <v>18746</v>
       </c>
       <c r="S6" t="n">
-        <v>12.27</v>
+        <v>312.43</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2</v>
+        <v>5.21</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="V6" t="n">
-        <v>6.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>1:18</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0:12:16</t>
+          <t>5:12:26</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1143,21 +1143,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La guerre du pavot</t>
+          <t>La Machine à explorer le temps</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R. f. Kuang</t>
+          <t>H. G. Wells</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kuang</t>
+          <t>Wells</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1177,68 +1177,68 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1021</v>
+        <v>185</v>
       </c>
       <c r="J7" t="n">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.5</v>
+        <v>10.5</v>
       </c>
       <c r="R7" t="n">
-        <v>4152</v>
+        <v>736</v>
       </c>
       <c r="S7" t="n">
-        <v>69.2</v>
+        <v>12.27</v>
       </c>
       <c r="T7" t="n">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="U7" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="V7" t="n">
-        <v>17.3</v>
+        <v>6.1</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0:17</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1:09:12</t>
+          <t>0:12:16</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1247,37 +1247,37 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yellowface</t>
+          <t>La guerre du pavot</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rebecca F. Kuang</t>
+          <t>R. f. Kuang</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rebecca Kuang</t>
+          <t>Kuang</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fiction/littérature contemporaine</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1287,68 +1287,68 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>502</v>
+        <v>1021</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>126</v>
       </c>
       <c r="K8" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.59999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="R8" t="n">
-        <v>17495</v>
+        <v>4152</v>
       </c>
       <c r="S8" t="n">
-        <v>291.58</v>
+        <v>69.2</v>
       </c>
       <c r="T8" t="n">
-        <v>4.86</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="n">
-        <v>0.97</v>
+        <v>0.29</v>
       </c>
       <c r="V8" t="n">
-        <v>58.3</v>
+        <v>17.3</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0:58</t>
+          <t>0:17</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4:51:35</t>
+          <t>1:09:12</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>45668</v>
+        <v>45671</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1357,112 +1357,108 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>littérature contemporaine</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Un palais d'épines et de roses, tome 1</t>
+          <t>Yellowface</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sarah J. Maas</t>
+          <t>Rebecca F. Kuang</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sarah Maas</t>
+          <t>Rebecca Kuang</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/littérature contemporaine</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un palais d'épines et de roses </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>620</v>
+        <v>502</v>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>55</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>4479</v>
+        <v>17495</v>
       </c>
       <c r="S9" t="n">
-        <v>74.65000000000001</v>
+        <v>291.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.24</v>
+        <v>4.86</v>
       </c>
       <c r="U9" t="n">
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="V9" t="n">
-        <v>37.3</v>
+        <v>58.3</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:58</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1:14:39</t>
+          <t>4:51:35</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>45663</v>
+        <v>45668</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1471,27 +1467,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>littérature contemporaine</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Journal d'un AssaSynth, Tome 2 : Schémas artificiels</t>
+          <t>Un palais d'épines et de roses, tome 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Sarah J. Maas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Sarah Maas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1501,82 +1497,82 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Un palais d'épines et de roses </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>156</v>
+        <v>620</v>
       </c>
       <c r="J10" t="n">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.7</v>
+        <v>55</v>
       </c>
       <c r="R10" t="n">
-        <v>7338</v>
+        <v>4479</v>
       </c>
       <c r="S10" t="n">
-        <v>122.3</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="U10" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="V10" t="n">
-        <v>40.8</v>
+        <v>37.3</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2:02:18</t>
+          <t>1:14:39</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1585,27 +1581,27 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>La Société protectrice des kaijus</t>
+          <t>Journal d'un AssaSynth, Tome 2 : Schémas artificiels</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1620,73 +1616,77 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t xml:space="preserve">Murderbot Diaries </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="J11" t="n">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="K11" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L11" t="n">
         <v>100</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.59999999999999</v>
+        <v>49.7</v>
       </c>
       <c r="R11" t="n">
-        <v>16246</v>
+        <v>7338</v>
       </c>
       <c r="S11" t="n">
-        <v>270.77</v>
+        <v>122.3</v>
       </c>
       <c r="T11" t="n">
-        <v>4.51</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="V11" t="n">
-        <v>54.2</v>
+        <v>40.8</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0:54</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>4:30:46</t>
+          <t>2:02:18</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45660</v>
+        <v>45662</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1701,31 +1701,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Résister</t>
+          <t>La Société protectrice des kaijus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Salomé Saqué</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>non-fiction/société</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1735,107 +1735,107 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="J12" t="n">
-        <v>115</v>
+        <v>428</v>
       </c>
       <c r="K12" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L12" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>3827</v>
+        <v>16246</v>
       </c>
       <c r="S12" t="n">
-        <v>63.78</v>
+        <v>270.77</v>
       </c>
       <c r="T12" t="n">
-        <v>1.06</v>
+        <v>4.51</v>
       </c>
       <c r="U12" t="n">
-        <v>0.27</v>
+        <v>0.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.9</v>
+        <v>54.2</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0:16</t>
+          <t>0:54</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1:03:47</t>
+          <t>4:30:46</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>45656</v>
+        <v>45660</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>société</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Superméchant débutant</t>
+          <t>Résister</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>John Scalzi</t>
+          <t>Salomé Saqué</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/société</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1845,59 +1845,59 @@
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="J13" t="n">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="K13" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.40000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="R13" t="n">
-        <v>15425</v>
+        <v>3827</v>
       </c>
       <c r="S13" t="n">
-        <v>257.08</v>
+        <v>63.78</v>
       </c>
       <c r="T13" t="n">
-        <v>4.28</v>
+        <v>1.06</v>
       </c>
       <c r="U13" t="n">
-        <v>0.86</v>
+        <v>0.27</v>
       </c>
       <c r="V13" t="n">
-        <v>51.4</v>
+        <v>15.9</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0:51</t>
+          <t>0:16</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>4:17:05</t>
+          <t>1:03:47</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1906,36 +1906,36 @@
         </is>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45655</v>
+        <v>45656</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>société</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
+          <t>Superméchant débutant</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tj Klune</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Klune</t>
+          <t>John Scalzi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1955,68 +1955,68 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>699</v>
+        <v>379</v>
       </c>
       <c r="J14" t="n">
-        <v>690</v>
+        <v>372</v>
       </c>
       <c r="K14" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>138</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>21762</v>
+        <v>15425</v>
       </c>
       <c r="S14" t="n">
-        <v>362.7</v>
+        <v>257.08</v>
       </c>
       <c r="T14" t="n">
-        <v>6.04</v>
+        <v>4.28</v>
       </c>
       <c r="U14" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="V14" t="n">
-        <v>72.5</v>
+        <v>51.4</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1:12</t>
+          <t>0:51</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>6:02:42</t>
+          <t>4:17:05</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>45651</v>
+        <v>45655</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2025,27 +2025,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
+          <t>La Maison au milieu de la Mer céruléenne (ebook)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Tj Klune</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Heather Fawcett</t>
+          <t>Klune</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2060,77 +2060,73 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encyclopédie féerique </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>491</v>
+        <v>699</v>
       </c>
       <c r="J15" t="n">
-        <v>470</v>
+        <v>690</v>
       </c>
       <c r="K15" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.8</v>
+        <v>138</v>
       </c>
       <c r="R15" t="n">
-        <v>23592</v>
+        <v>21762</v>
       </c>
       <c r="S15" t="n">
-        <v>393.2</v>
+        <v>362.7</v>
       </c>
       <c r="T15" t="n">
-        <v>6.55</v>
+        <v>6.04</v>
       </c>
       <c r="U15" t="n">
-        <v>0.82</v>
+        <v>1.21</v>
       </c>
       <c r="V15" t="n">
-        <v>49.2</v>
+        <v>72.5</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>1:12</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>6:33:12</t>
+          <t>6:02:42</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>45645</v>
+        <v>45651</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2145,11 +2141,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L’Encyclopédie féerique d’Emily Wilde</t>
+          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2174,29 +2170,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily Wilde </t>
+          <t xml:space="preserve">Encyclopédie féerique </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="J16" t="n">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="K16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2205,37 +2201,37 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.5</v>
+        <v>58.8</v>
       </c>
       <c r="R16" t="n">
-        <v>20584</v>
+        <v>23592</v>
       </c>
       <c r="S16" t="n">
-        <v>343.07</v>
+        <v>393.2</v>
       </c>
       <c r="T16" t="n">
-        <v>5.72</v>
+        <v>6.55</v>
       </c>
       <c r="U16" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="V16" t="n">
-        <v>57.2</v>
+        <v>49.2</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0:57</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>5:43:04</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2259,21 +2255,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blackwater T6 : Pluie</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Heather Fawcett</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2283,82 +2279,82 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Emily Wilde </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>283</v>
+        <v>538</v>
       </c>
       <c r="J17" t="n">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="K17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L17" t="n">
         <v>100</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>273</v>
+        <v>85.5</v>
       </c>
       <c r="R17" t="n">
-        <v>9999</v>
+        <v>20584</v>
       </c>
       <c r="S17" t="n">
-        <v>166.65</v>
+        <v>343.07</v>
       </c>
       <c r="T17" t="n">
-        <v>2.78</v>
+        <v>5.72</v>
       </c>
       <c r="U17" t="n">
-        <v>2.78</v>
+        <v>0.95</v>
       </c>
       <c r="V17" t="n">
-        <v>166.6</v>
+        <v>57.2</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2:46</t>
+          <t>0:57</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2:46:39</t>
+          <t>5:43:04</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>45637</v>
+        <v>45645</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2367,27 +2363,27 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
+          <t>Blackwater T6 : Pluie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Travis Baldtree</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2397,20 +2393,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t xml:space="preserve">Blackwater </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="J18" t="n">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="K18" t="n">
         <v>1.6</v>
@@ -2420,55 +2420,55 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="R18" t="n">
-        <v>19151</v>
+        <v>9999</v>
       </c>
       <c r="S18" t="n">
-        <v>319.18</v>
+        <v>166.65</v>
       </c>
       <c r="T18" t="n">
-        <v>5.32</v>
+        <v>2.78</v>
       </c>
       <c r="U18" t="n">
-        <v>0.76</v>
+        <v>2.78</v>
       </c>
       <c r="V18" t="n">
-        <v>45.6</v>
+        <v>166.6</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>2:46</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>5:19:11</t>
+          <t>2:46:39</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
+          <t>Sagas &amp; sable d’os : Une histoire du Légendes &amp; Lattes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Travis Baldtree</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2507,82 +2507,78 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="K19" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.3</v>
+        <v>72</v>
       </c>
       <c r="R19" t="n">
-        <v>8728</v>
+        <v>19151</v>
       </c>
       <c r="S19" t="n">
-        <v>145.47</v>
+        <v>319.18</v>
       </c>
       <c r="T19" t="n">
-        <v>2.42</v>
+        <v>5.32</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="V19" t="n">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2:25:28</t>
+          <t>5:19:11</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -2591,27 +2587,27 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Défaillances systèmes</t>
+          <t>Blackwater 5 – La Fortune: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Martha Wells</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2621,82 +2617,82 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Murderbot Diaries </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="J20" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.8</v>
+        <v>93.3</v>
       </c>
       <c r="R20" t="n">
-        <v>7599</v>
+        <v>8728</v>
       </c>
       <c r="S20" t="n">
-        <v>126.65</v>
+        <v>145.47</v>
       </c>
       <c r="T20" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="U20" t="n">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V20" t="n">
-        <v>31.7</v>
+        <v>48.5</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2:06:39</t>
+          <t>2:25:28</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2705,27 +2701,27 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tehanu</t>
+          <t>Défaillances systèmes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Martha Wells</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2735,82 +2731,82 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
+          <t xml:space="preserve">Murderbot Diaries </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="J21" t="n">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="K21" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.6</v>
+        <v>42.8</v>
       </c>
       <c r="R21" t="n">
-        <v>17096</v>
+        <v>7599</v>
       </c>
       <c r="S21" t="n">
-        <v>284.93</v>
+        <v>126.65</v>
       </c>
       <c r="T21" t="n">
-        <v>4.75</v>
+        <v>2.11</v>
       </c>
       <c r="U21" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="V21" t="n">
-        <v>28.5</v>
+        <v>31.7</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>4:44:56</t>
+          <t>2:06:39</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -2819,27 +2815,27 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Voyageur 4 : La Galaxie vue du sol</t>
+          <t>Minimalisme numérique</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Cal Newport</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2849,34 +2845,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>400</v>
       </c>
       <c r="J22" t="n">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="K22" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2885,42 +2877,42 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.6</v>
+        <v>22</v>
       </c>
       <c r="R22" t="n">
-        <v>17648</v>
+        <v>531</v>
       </c>
       <c r="S22" t="n">
-        <v>294.13</v>
+        <v>8.85</v>
       </c>
       <c r="T22" t="n">
-        <v>4.9</v>
+        <v>0.15</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="V22" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>4:54:08</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z22" s="2" t="n">
@@ -2928,32 +2920,32 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Minimalisme numérique</t>
+          <t>Tehanu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cal Newport</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2963,74 +2955,78 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2024-11-24</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2024-11-24</t>
-        </is>
-      </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
-        <v>22</v>
+        <v>34.6</v>
       </c>
       <c r="R23" t="n">
-        <v>531</v>
+        <v>17096</v>
       </c>
       <c r="S23" t="n">
-        <v>8.85</v>
+        <v>284.93</v>
       </c>
       <c r="T23" t="n">
-        <v>0.15</v>
+        <v>4.75</v>
       </c>
       <c r="U23" t="n">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="V23" t="n">
-        <v>8.800000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>4:44:56</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z23" s="2" t="n">
@@ -3038,32 +3034,32 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
+          <t>Voyageur 4 : La Galaxie vue du sol</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3073,78 +3069,82 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t xml:space="preserve">Les voyageurs </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I24" t="n">
-        <v>636</v>
+        <v>400</v>
       </c>
       <c r="J24" t="n">
-        <v>572</v>
+        <v>382</v>
       </c>
       <c r="K24" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.6</v>
+        <v>54.6</v>
       </c>
       <c r="R24" t="n">
-        <v>20106</v>
+        <v>17648</v>
       </c>
       <c r="S24" t="n">
-        <v>335.1</v>
+        <v>294.13</v>
       </c>
       <c r="T24" t="n">
-        <v>5.58</v>
+        <v>4.9</v>
       </c>
       <c r="U24" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="V24" t="n">
-        <v>37.2</v>
+        <v>42</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>5:35:06</t>
+          <t>4:54:08</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45608</v>
+        <v>45620</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -3153,27 +3153,27 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
+          <t>Projet secret T2 : Manuel de Survie du Sorcier Frugal dans l'Angleterre médiévale</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3183,24 +3183,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>257</v>
+        <v>636</v>
       </c>
       <c r="J25" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="K25" t="n">
         <v>1.7</v>
@@ -3210,55 +3206,55 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.5</v>
+        <v>63.6</v>
       </c>
       <c r="R25" t="n">
-        <v>8578</v>
+        <v>20106</v>
       </c>
       <c r="S25" t="n">
-        <v>142.97</v>
+        <v>335.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>5.58</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="V25" t="n">
-        <v>23.8</v>
+        <v>37.2</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0:24</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2:22:58</t>
+          <t>5:35:06</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>45598</v>
+        <v>45608</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -3267,27 +3263,27 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Voyageur 3 : Archives de l'exode</t>
+          <t>Blackwater 4 – La Guerre: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3297,82 +3293,82 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="J26" t="n">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="K26" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="L26" t="n">
         <v>100</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.5</v>
+        <v>41.5</v>
       </c>
       <c r="R26" t="n">
-        <v>22254</v>
+        <v>8578</v>
       </c>
       <c r="S26" t="n">
-        <v>370.9</v>
+        <v>142.97</v>
       </c>
       <c r="T26" t="n">
-        <v>6.18</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="V26" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0:28</t>
+          <t>0:24</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>6:10:54</t>
+          <t>2:22:58</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>45588</v>
+        <v>45598</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -3381,27 +3377,27 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
+          <t>Voyageur 3 : Archives de l'exode</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3411,12 +3407,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3425,50 +3421,50 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="J27" t="n">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="K27" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L27" t="n">
         <v>100</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.2</v>
+        <v>32.5</v>
       </c>
       <c r="R27" t="n">
-        <v>8572</v>
+        <v>22254</v>
       </c>
       <c r="S27" t="n">
-        <v>142.87</v>
+        <v>370.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.38</v>
+        <v>6.18</v>
       </c>
       <c r="U27" t="n">
         <v>0.48</v>
       </c>
       <c r="V27" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -3477,16 +3473,16 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2:22:52</t>
+          <t>6:10:54</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -3495,27 +3491,27 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Voyageur 2 : Libration</t>
+          <t>Blackwater 3 – La Maison: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3525,24 +3521,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les voyageurs </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="J28" t="n">
-        <v>487</v>
+        <v>206</v>
       </c>
       <c r="K28" t="n">
         <v>1.4</v>
@@ -3552,55 +3548,55 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="R28" t="n">
-        <v>21135</v>
+        <v>8572</v>
       </c>
       <c r="S28" t="n">
-        <v>352.25</v>
+        <v>142.87</v>
       </c>
       <c r="T28" t="n">
-        <v>5.87</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
       <c r="V28" t="n">
-        <v>70.40000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1:10</t>
+          <t>0:28</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>5:52:15</t>
+          <t>2:22:52</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -3609,17 +3605,17 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Voyageur 1 : L'Espace d'un an</t>
+          <t>Voyageur 2 : Libration</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3649,72 +3645,72 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>789</v>
+        <v>504</v>
       </c>
       <c r="J29" t="n">
-        <v>779</v>
+        <v>487</v>
       </c>
       <c r="K29" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L29" t="n">
         <v>100</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>129.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>26925</v>
+        <v>21135</v>
       </c>
       <c r="S29" t="n">
-        <v>448.75</v>
+        <v>352.25</v>
       </c>
       <c r="T29" t="n">
-        <v>7.48</v>
+        <v>5.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V29" t="n">
-        <v>74.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>1:10</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>7:28:45</t>
+          <t>5:52:15</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45564</v>
+        <v>45568</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -3729,11 +3725,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
+          <t>Voyageur 1 : L'Espace d'un an</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3758,77 +3754,77 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoires de moine et de robot </t>
+          <t xml:space="preserve">Les voyageurs </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>139</v>
+        <v>789</v>
       </c>
       <c r="J30" t="n">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="K30" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L30" t="n">
         <v>100</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>27</v>
+        <v>129.8</v>
       </c>
       <c r="R30" t="n">
-        <v>5787</v>
+        <v>26925</v>
       </c>
       <c r="S30" t="n">
-        <v>96.45</v>
+        <v>448.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.61</v>
+        <v>7.48</v>
       </c>
       <c r="U30" t="n">
-        <v>0.32</v>
+        <v>1.25</v>
       </c>
       <c r="V30" t="n">
-        <v>19.3</v>
+        <v>74.8</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0:19</t>
+          <t>1:15</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>1:36:27</t>
+          <t>7:28:45</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3843,21 +3839,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Le livre des choses perdues</t>
+          <t>Histoires de moine et de robot T2 : Une prière pour les cimes timides</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>John Connolly</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3867,78 +3863,82 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t xml:space="preserve">Histoires de moine et de robot </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="J31" t="n">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="K31" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L31" t="n">
         <v>100</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P31" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.2</v>
+        <v>27</v>
       </c>
       <c r="R31" t="n">
-        <v>21326</v>
+        <v>5787</v>
       </c>
       <c r="S31" t="n">
-        <v>355.43</v>
+        <v>96.45</v>
       </c>
       <c r="T31" t="n">
-        <v>5.92</v>
+        <v>1.61</v>
       </c>
       <c r="U31" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="V31" t="n">
-        <v>22.2</v>
+        <v>19.3</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0:22</t>
+          <t>0:19</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>5:55:26</t>
+          <t>1:36:27</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45544</v>
+        <v>45558</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3947,54 +3947,50 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blackwater 2 - La digue</t>
+          <t>Le livre des choses perdues</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Michael McDowell</t>
+          <t>John Connolly</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackwater </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="J32" t="n">
-        <v>208</v>
+        <v>467</v>
       </c>
       <c r="K32" t="n">
         <v>1.3</v>
@@ -4004,55 +4000,55 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.6</v>
+        <v>29.2</v>
       </c>
       <c r="R32" t="n">
-        <v>9457</v>
+        <v>21326</v>
       </c>
       <c r="S32" t="n">
-        <v>157.62</v>
+        <v>355.43</v>
       </c>
       <c r="T32" t="n">
-        <v>2.63</v>
+        <v>5.92</v>
       </c>
       <c r="U32" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="V32" t="n">
-        <v>31.5</v>
+        <v>22.2</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:22</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2:37:37</t>
+          <t>5:55:26</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>45524</v>
+        <v>45544</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
@@ -4061,17 +4057,17 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
+          <t>Blackwater 2 - La digue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4086,7 +4082,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4101,63 +4097,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J33" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K33" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L33" t="n">
         <v>100</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.5</v>
+        <v>41.6</v>
       </c>
       <c r="R33" t="n">
-        <v>9673</v>
+        <v>9457</v>
       </c>
       <c r="S33" t="n">
-        <v>161.22</v>
+        <v>157.62</v>
       </c>
       <c r="T33" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="V33" t="n">
-        <v>40.3</v>
+        <v>31.5</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2:41:13</t>
+          <t>2:37:37</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4166,7 +4162,7 @@
         </is>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>45522</v>
+        <v>45524</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -4181,36 +4177,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Leviathan Wakes - the expanse 1</t>
+          <t>Blackwater 1 - La crue: L'épique saga de la famille Caskey</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>James S. A. Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>James Corey</t>
+          <t>Michael McDowell</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Expanse </t>
+          <t xml:space="preserve">Blackwater </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4219,68 +4215,68 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>823</v>
+        <v>248</v>
       </c>
       <c r="J34" t="n">
-        <v>815</v>
+        <v>234</v>
       </c>
       <c r="K34" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L34" t="n">
         <v>100</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9</v>
+        <v>58.5</v>
       </c>
       <c r="R34" t="n">
-        <v>44807</v>
+        <v>9673</v>
       </c>
       <c r="S34" t="n">
-        <v>746.78</v>
+        <v>161.22</v>
       </c>
       <c r="T34" t="n">
-        <v>12.45</v>
+        <v>2.69</v>
       </c>
       <c r="U34" t="n">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="V34" t="n">
-        <v>93.3</v>
+        <v>40.3</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>12:26:47</t>
+          <t>2:41:13</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -4289,27 +4285,27 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
+          <t>Leviathan Wakes - the expanse 1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James S. A. Corey</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>James Clear</t>
+          <t>James Corey</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4319,26 +4315,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>non-fiction/lifestyle</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t xml:space="preserve">The Expanse </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>815</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4347,89 +4347,89 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.5</v>
+        <v>101.9</v>
       </c>
       <c r="R35" t="n">
-        <v>94</v>
+        <v>44807</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>746.78</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03</v>
+        <v>12.45</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01</v>
+        <v>1.56</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8</v>
+        <v>93.3</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>12:26:47</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>lifestyle</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
+          <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>James Clear</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/lifestyle</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4439,102 +4439,102 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R36" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>lifestyle</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Les Variations Sebastian</t>
+          <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Emily St.John Mandel</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4549,68 +4549,68 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="J37" t="n">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>114.5</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>16163</v>
+        <v>216</v>
       </c>
       <c r="S37" t="n">
-        <v>269.38</v>
+        <v>3.6</v>
       </c>
       <c r="T37" t="n">
-        <v>4.49</v>
+        <v>0.06</v>
       </c>
       <c r="U37" t="n">
-        <v>1.12</v>
+        <v>0.03</v>
       </c>
       <c r="V37" t="n">
-        <v>67.3</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>1:07</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>4:29:23</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -4625,21 +4625,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
+          <t>Les Variations Sebastian</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily St.John Mandel</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4659,68 +4659,68 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>798</v>
+        <v>471</v>
       </c>
       <c r="J38" t="n">
-        <v>768</v>
+        <v>458</v>
       </c>
       <c r="K38" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L38" t="n">
         <v>100</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.8</v>
+        <v>114.5</v>
       </c>
       <c r="R38" t="n">
-        <v>25131</v>
+        <v>16163</v>
       </c>
       <c r="S38" t="n">
-        <v>418.85</v>
+        <v>269.38</v>
       </c>
       <c r="T38" t="n">
-        <v>6.98</v>
+        <v>4.49</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="V38" t="n">
-        <v>41.9</v>
+        <v>67.3</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>1:07</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>6:58:51</t>
+          <t>4:29:23</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4729,27 +4729,27 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Légendes et lattes</t>
+          <t>Roman secret 3 - Yumi et le peintre de cauchemars</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Travis Baldree</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4769,25 +4769,25 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>397</v>
+        <v>798</v>
       </c>
       <c r="J39" t="n">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="K39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L39" t="n">
         <v>100</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -4797,40 +4797,40 @@
         <v>10</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.7</v>
+        <v>76.8</v>
       </c>
       <c r="R39" t="n">
-        <v>15807</v>
+        <v>25131</v>
       </c>
       <c r="S39" t="n">
-        <v>263.45</v>
+        <v>418.85</v>
       </c>
       <c r="T39" t="n">
-        <v>4.39</v>
+        <v>6.98</v>
       </c>
       <c r="U39" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="V39" t="n">
-        <v>26.3</v>
+        <v>41.9</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>4:23:27</t>
+          <t>6:58:51</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>45491</v>
+        <v>45502</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -4845,21 +4845,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Légendes et lattes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Travis Baldree</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4879,59 +4879,59 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="J40" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="K40" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L40" t="n">
         <v>100</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.4</v>
+        <v>38.7</v>
       </c>
       <c r="R40" t="n">
-        <v>11415</v>
+        <v>15807</v>
       </c>
       <c r="S40" t="n">
-        <v>190.25</v>
+        <v>263.45</v>
       </c>
       <c r="T40" t="n">
-        <v>3.17</v>
+        <v>4.39</v>
       </c>
       <c r="U40" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="V40" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>4:23:27</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>45480</v>
+        <v>45491</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -4949,27 +4949,27 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4979,78 +4979,74 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2024-07-07</t>
-        </is>
-      </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>46.4</v>
       </c>
       <c r="R41" t="n">
-        <v>108</v>
+        <v>11415</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>190.25</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03</v>
+        <v>3.17</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="V41" t="n">
-        <v>1.8</v>
+        <v>27.2</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z41" s="2" t="n">
@@ -5063,65 +5059,69 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Everyday Parenting Toolkit</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Alan E. Kazdin</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Alan Kazdin</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I42" t="n">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -5131,22 +5131,22 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="S42" t="n">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -5155,55 +5155,55 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>L'hôtel de verre</t>
+          <t>The Everyday Parenting Toolkit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Alan E. Kazdin</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Alan Kazdin</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5213,97 +5213,97 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="J43" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>17475</v>
+        <v>74</v>
       </c>
       <c r="S43" t="n">
-        <v>291.25</v>
+        <v>1.23</v>
       </c>
       <c r="T43" t="n">
-        <v>4.85</v>
+        <v>0.02</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V43" t="n">
-        <v>48.5</v>
+        <v>1.2</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0:48</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>4:51:15</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Récursion</t>
+          <t>L'hôtel de verre</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Blake Crouch</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5323,16 +5323,16 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="K44" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -5341,50 +5341,50 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>25</v>
+        <v>72.5</v>
       </c>
       <c r="R44" t="n">
-        <v>865</v>
+        <v>17475</v>
       </c>
       <c r="S44" t="n">
-        <v>14.42</v>
+        <v>291.25</v>
       </c>
       <c r="T44" t="n">
-        <v>0.24</v>
+        <v>4.85</v>
       </c>
       <c r="U44" t="n">
-        <v>0.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>14.4</v>
+        <v>48.5</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0:14</t>
+          <t>0:48</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0:14:25</t>
+          <t>4:51:15</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>45464</v>
+        <v>45472</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -5393,27 +5393,27 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Un psaume pour les recyclés sauvages</t>
+          <t>Récursion</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Becky Chambers</t>
+          <t>Blake Crouch</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5433,68 +5433,68 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>157</v>
+        <v>523</v>
       </c>
       <c r="J45" t="n">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K45" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R45" t="n">
-        <v>7302</v>
+        <v>865</v>
       </c>
       <c r="S45" t="n">
-        <v>121.7</v>
+        <v>14.42</v>
       </c>
       <c r="T45" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="U45" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
       <c r="V45" t="n">
-        <v>40.6</v>
+        <v>14.4</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0:40</t>
+          <t>0:14</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>0:14:25</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -5509,22 +5509,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Les Oiseaux du Temps</t>
+          <t>Un psaume pour les recyclés sauvages</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar
-Max Gladstone</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Amal El-Mohtar</t>
+          <t>Becky Chambers</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5544,68 +5543,68 @@
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="J46" t="n">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="K46" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L46" t="n">
         <v>100</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.3</v>
+        <v>51</v>
       </c>
       <c r="R46" t="n">
-        <v>9644</v>
+        <v>7302</v>
       </c>
       <c r="S46" t="n">
-        <v>160.73</v>
+        <v>121.7</v>
       </c>
       <c r="T46" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="U46" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="V46" t="n">
-        <v>26.8</v>
+        <v>40.6</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:40</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>2:40:44</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5620,21 +5619,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CN4 Jeux d'ombres</t>
+          <t>Les Oiseaux du Temps</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar
+Max Gladstone</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Glen Cook</t>
+          <t>Amal El-Mohtar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5644,82 +5644,78 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="K47" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.5</v>
+        <v>44.3</v>
       </c>
       <c r="R47" t="n">
-        <v>267</v>
+        <v>9644</v>
       </c>
       <c r="S47" t="n">
-        <v>4.45</v>
+        <v>160.73</v>
       </c>
       <c r="T47" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="U47" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>26.8</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0:02</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>2:40:44</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>45454</v>
+        <v>45459</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5728,27 +5724,27 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Skyward 0.5 - Un paradis à défendre</t>
+          <t>CN4 Jeux d'ombres</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Glen Cook</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5758,26 +5754,30 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t xml:space="preserve">Les Annales de la Compagnie Noire </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="I48" t="n">
-        <v>86</v>
+        <v>542</v>
       </c>
       <c r="J48" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="K48" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L48" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -5786,50 +5786,50 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>82</v>
+        <v>3.5</v>
       </c>
       <c r="R48" t="n">
-        <v>3218</v>
+        <v>267</v>
       </c>
       <c r="S48" t="n">
-        <v>53.63</v>
+        <v>4.45</v>
       </c>
       <c r="T48" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="V48" t="n">
-        <v>53.6</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0:53</t>
+          <t>0:02</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0:53:38</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -5838,37 +5838,37 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Héroïsme, tribulations et passe-temps dangereux</t>
+          <t>Skyward 0.5 - Un paradis à défendre</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J. K. Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rowling</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>fiction/fantastique</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5878,20 +5878,20 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J49" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K49" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L49" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5900,42 +5900,42 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>11.5</v>
+        <v>82</v>
       </c>
       <c r="R49" t="n">
-        <v>2525</v>
+        <v>3218</v>
       </c>
       <c r="S49" t="n">
-        <v>42.08</v>
+        <v>53.63</v>
       </c>
       <c r="T49" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="U49" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="V49" t="n">
-        <v>10.5</v>
+        <v>53.6</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>0:53</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:53:38</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z49" s="2" t="n">
@@ -5948,94 +5948,90 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>fantastique</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Janua Vera</t>
+          <t>Héroïsme, tribulations et passe-temps dangereux</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>J. K. Rowling</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jean-Philippe Jaworski</t>
+          <t>Rowling</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/fantastique</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récits du Vieux Royaume </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>744</v>
+        <v>58</v>
       </c>
       <c r="J50" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50" t="n">
         <v>1.1</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="R50" t="n">
-        <v>2597</v>
+        <v>2525</v>
       </c>
       <c r="S50" t="n">
-        <v>43.28</v>
+        <v>42.08</v>
       </c>
       <c r="T50" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="U50" t="n">
         <v>0.18</v>
       </c>
       <c r="V50" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -6044,16 +6040,16 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0:43:17</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -6062,27 +6058,27 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>fantastique</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Station Eleven</t>
+          <t>Janua Vera</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Jean-Philippe Jaworski</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6092,78 +6088,82 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t xml:space="preserve">Récits du Vieux Royaume </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I51" t="n">
-        <v>568</v>
+        <v>744</v>
       </c>
       <c r="J51" t="n">
-        <v>546</v>
+        <v>47</v>
       </c>
       <c r="K51" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>78</v>
+        <v>11.8</v>
       </c>
       <c r="R51" t="n">
-        <v>19208</v>
+        <v>2597</v>
       </c>
       <c r="S51" t="n">
-        <v>320.13</v>
+        <v>43.28</v>
       </c>
       <c r="T51" t="n">
-        <v>5.34</v>
+        <v>0.72</v>
       </c>
       <c r="U51" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="V51" t="n">
-        <v>45.7</v>
+        <v>10.8</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0:45</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>5:20:08</t>
+          <t>0:43:17</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>45445</v>
+        <v>45450</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -6172,32 +6172,32 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A Princess of Mars</t>
+          <t>Station Eleven</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Edgar Rice Burroughs</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Edgar Rice</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6212,16 +6212,16 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="K52" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -6230,50 +6230,50 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>19208</v>
       </c>
       <c r="S52" t="n">
-        <v>0.08</v>
+        <v>320.13</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1</v>
+        <v>45.7</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:45</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>5:20:08</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -6288,26 +6288,26 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Des fleurs pour Algernon</t>
+          <t>A Princess of Mars</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice Burroughs</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Daniel Keyes</t>
+          <t>Edgar Rice</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6322,20 +6322,20 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="J53" t="n">
-        <v>447</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.7</v>
+        <v>12.5</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-05-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6344,42 +6344,42 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>15965</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>266.08</v>
+        <v>0.08</v>
       </c>
       <c r="T53" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>88.7</v>
+        <v>0.1</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>4:26:05</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="Z53" s="2" t="n">
@@ -6398,21 +6398,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Skyward T3 : Cytonique</t>
+          <t>Des fleurs pour Algernon</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Brandon Sanderson</t>
+          <t>Daniel Keyes</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6432,10 +6432,10 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>766</v>
+        <v>456</v>
       </c>
       <c r="J54" t="n">
-        <v>741</v>
+        <v>447</v>
       </c>
       <c r="K54" t="n">
         <v>1.7</v>
@@ -6445,55 +6445,55 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>82.3</v>
+        <v>149</v>
       </c>
       <c r="R54" t="n">
-        <v>26517</v>
+        <v>15965</v>
       </c>
       <c r="S54" t="n">
-        <v>441.95</v>
+        <v>266.08</v>
       </c>
       <c r="T54" t="n">
-        <v>7.37</v>
+        <v>4.43</v>
       </c>
       <c r="U54" t="n">
-        <v>0.82</v>
+        <v>1.48</v>
       </c>
       <c r="V54" t="n">
-        <v>49.1</v>
+        <v>88.7</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>7:21:57</t>
+          <t>4:26:05</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="Z54" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -6508,26 +6508,26 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trois corps – 01 – Le problème à trois corps</t>
+          <t>Skyward T3 : Cytonique</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Liu Cixin</t>
+          <t>Brandon Sanderson</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6537,77 +6537,73 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois corps </t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="J55" t="n">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="K55" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L55" t="n">
         <v>100</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P55" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q55" t="n">
-        <v>59</v>
+        <v>82.3</v>
       </c>
       <c r="R55" t="n">
-        <v>30613</v>
+        <v>26517</v>
       </c>
       <c r="S55" t="n">
-        <v>510.22</v>
+        <v>441.95</v>
       </c>
       <c r="T55" t="n">
-        <v>8.5</v>
+        <v>7.37</v>
       </c>
       <c r="U55" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="V55" t="n">
-        <v>42.5</v>
+        <v>49.1</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>8:30:13</t>
+          <t>7:21:57</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z55" s="2" t="n">
-        <v>45427</v>
+        <v>45436</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -6622,26 +6618,26 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Le Chasch</t>
+          <t>Trois corps – 01 – Le problème à trois corps</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vance,Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Vance Jack</t>
+          <t>Liu Cixin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6651,7 +6647,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de Tschaï </t>
+          <t xml:space="preserve">Trois corps </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6660,68 +6656,68 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>266</v>
+        <v>745</v>
       </c>
       <c r="J56" t="n">
-        <v>260</v>
+        <v>708</v>
       </c>
       <c r="K56" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L56" t="n">
         <v>100</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P56" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q56" t="n">
-        <v>43.3</v>
+        <v>59</v>
       </c>
       <c r="R56" t="n">
-        <v>13755</v>
+        <v>30613</v>
       </c>
       <c r="S56" t="n">
-        <v>229.25</v>
+        <v>510.22</v>
       </c>
       <c r="T56" t="n">
-        <v>3.82</v>
+        <v>8.5</v>
       </c>
       <c r="U56" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="V56" t="n">
-        <v>38.2</v>
+        <v>42.5</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0:38</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>3:49:15</t>
+          <t>8:30:13</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="Z56" s="2" t="n">
-        <v>45415</v>
+        <v>45427</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -6736,21 +6732,21 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marche ou crève</t>
+          <t>Le Chasch</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>King,Stephen</t>
+          <t>Vance,Jack</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>King Stephen</t>
+          <t>Vance Jack</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6765,73 +6761,77 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t xml:space="preserve">Cycle de Tschaï </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I57" t="n">
-        <v>429</v>
+        <v>266</v>
       </c>
       <c r="J57" t="n">
-        <v>419</v>
+        <v>260</v>
       </c>
       <c r="K57" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L57" t="n">
         <v>100</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q57" t="n">
-        <v>59.9</v>
+        <v>43.3</v>
       </c>
       <c r="R57" t="n">
-        <v>17983</v>
+        <v>13755</v>
       </c>
       <c r="S57" t="n">
-        <v>299.72</v>
+        <v>229.25</v>
       </c>
       <c r="T57" t="n">
-        <v>5</v>
+        <v>3.82</v>
       </c>
       <c r="U57" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="V57" t="n">
-        <v>42.8</v>
+        <v>38.2</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>0:42</t>
+          <t>0:38</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>4:59:43</t>
+          <t>3:49:15</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z57" s="2" t="n">
-        <v>45410</v>
+        <v>45415</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -6846,22 +6846,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Titus d'enfer</t>
+          <t>Marche ou crève</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mervyn Peake
-Patrick Reumaux</t>
+          <t>King,Stephen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mervyn Peake</t>
+          <t>King Stephen</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6871,78 +6870,74 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gormenghast </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>883</v>
+        <v>429</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="K58" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>2024-04-28</t>
-        </is>
-      </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>59.9</v>
       </c>
       <c r="R58" t="n">
-        <v>14</v>
+        <v>17983</v>
       </c>
       <c r="S58" t="n">
-        <v>0.23</v>
+        <v>299.72</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2</v>
+        <v>42.8</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:42</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>4:59:43</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="Z58" s="2" t="n">
@@ -6955,27 +6950,28 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L'Enchanteur</t>
+          <t>Titus d'enfer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Barjavel, René</t>
+          <t>Mervyn Peake
+Patrick Reumaux</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Mervyn Peake</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6990,73 +6986,77 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t xml:space="preserve">Gormenghast </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I59" t="n">
-        <v>572</v>
+        <v>883</v>
       </c>
       <c r="J59" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="L59" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>37.2</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>22707</v>
+        <v>14</v>
       </c>
       <c r="S59" t="n">
-        <v>378.45</v>
+        <v>0.23</v>
       </c>
       <c r="T59" t="n">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>29.1</v>
+        <v>0.2</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0:29</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>6:18:27</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Z59" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -7071,31 +7071,31 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dans la toile du temps</t>
+          <t>L'Enchanteur</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel, René</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Adrian Tchaikovsky</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>fr-FR</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -7105,68 +7105,68 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>888</v>
+        <v>572</v>
       </c>
       <c r="J60" t="n">
-        <v>870</v>
+        <v>484</v>
       </c>
       <c r="K60" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L60" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P60" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q60" t="n">
-        <v>43.5</v>
+        <v>37.2</v>
       </c>
       <c r="R60" t="n">
-        <v>37279</v>
+        <v>22707</v>
       </c>
       <c r="S60" t="n">
-        <v>621.3200000000001</v>
+        <v>378.45</v>
       </c>
       <c r="T60" t="n">
-        <v>10.36</v>
+        <v>6.31</v>
       </c>
       <c r="U60" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="V60" t="n">
-        <v>31.1</v>
+        <v>29.1</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:29</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>10:21:19</t>
+          <t>6:18:27</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="Z60" s="2" t="n">
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
@@ -7175,32 +7175,32 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>la route</t>
+          <t>Dans la toile du temps</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cormac McCarthy</t>
+          <t>Adrian Tchaikovsky</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>fr-FR</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7215,68 +7215,68 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>385</v>
+        <v>888</v>
       </c>
       <c r="J61" t="n">
-        <v>383</v>
+        <v>870</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q61" t="n">
-        <v>191.5</v>
+        <v>43.5</v>
       </c>
       <c r="R61" t="n">
-        <v>11242</v>
+        <v>37279</v>
       </c>
       <c r="S61" t="n">
-        <v>187.37</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="T61" t="n">
-        <v>3.12</v>
+        <v>10.36</v>
       </c>
       <c r="U61" t="n">
-        <v>1.56</v>
+        <v>0.52</v>
       </c>
       <c r="V61" t="n">
-        <v>93.7</v>
+        <v>31.1</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>1:33</t>
+          <t>0:31</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>3:07:22</t>
+          <t>10:21:19</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z61" s="2" t="n">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
@@ -7291,21 +7291,21 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ravage</t>
+          <t>la route</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>René Barjavel</t>
+          <t>Cormac McCarthy</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7325,68 +7325,68 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J62" t="n">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>10.2</v>
+        <v>191.5</v>
       </c>
       <c r="R62" t="n">
-        <v>2566</v>
+        <v>11242</v>
       </c>
       <c r="S62" t="n">
-        <v>42.77</v>
+        <v>187.37</v>
       </c>
       <c r="T62" t="n">
-        <v>0.71</v>
+        <v>3.12</v>
       </c>
       <c r="U62" t="n">
-        <v>0.18</v>
+        <v>1.56</v>
       </c>
       <c r="V62" t="n">
-        <v>10.7</v>
+        <v>93.7</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0:10</t>
+          <t>1:33</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0:42:46</t>
+          <t>3:07:22</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="Z62" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -7401,21 +7401,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>La cinquième saison</t>
+          <t>Ravage</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nora K. Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nora Jemisin</t>
+          <t>René Barjavel</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7425,82 +7425,78 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les livres de la terre fracturée </t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>759</v>
+        <v>330</v>
       </c>
       <c r="J63" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="R63" t="n">
-        <v>1636</v>
+        <v>2566</v>
       </c>
       <c r="S63" t="n">
-        <v>27.27</v>
+        <v>42.77</v>
       </c>
       <c r="T63" t="n">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="U63" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="V63" t="n">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0:09</t>
+          <t>0:10</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>0:42:46</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="Z63" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
@@ -7509,27 +7505,27 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Le troupeau aveugle, 1</t>
+          <t>La cinquième saison</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora K. Jemisin</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>John Brunner</t>
+          <t>Nora Jemisin</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7539,12 +7535,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le troupeau aveugle </t>
+          <t xml:space="preserve">Les livres de la terre fracturée </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7553,68 +7549,68 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>382</v>
+        <v>759</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K64" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L64" t="n">
         <v>3</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R64" t="n">
-        <v>610</v>
+        <v>1636</v>
       </c>
       <c r="S64" t="n">
-        <v>10.17</v>
+        <v>27.27</v>
       </c>
       <c r="T64" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="V64" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0:04</t>
+          <t>0:09</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0:10:10</t>
+          <t>0:27:16</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="Z64" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -7623,27 +7619,27 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hommage à la Catalogne</t>
+          <t>Le troupeau aveugle, 1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>John Brunner</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7653,35 +7649,39 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>non-fiction/histoire</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t xml:space="preserve">Le troupeau aveugle </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I65" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L65" t="n">
         <v>3</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -7691,191 +7691,191 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R65" t="n">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="S65" t="n">
-        <v>12.5</v>
+        <v>10.17</v>
       </c>
       <c r="T65" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="U65" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="V65" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:04</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:10:10</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="Z65" s="2" t="n">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>histoire</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>28</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hommage à la Catalogne</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>non-fiction/histoire</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>400</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>6</v>
+      </c>
+      <c r="R66" t="n">
+        <v>750</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>0:12:30</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>non-fiction</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>histoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v>26</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Le sorcier de Terremer</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Ursula K. le Guin
 Philippe R. Hupp
 Michel Lee Landa</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Ursula Guin</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>fiction/fantasy</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>337</v>
-      </c>
-      <c r="J66" t="n">
-        <v>329</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L66" t="n">
-        <v>100</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2024-02-29</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>2024-03-07</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>8</v>
-      </c>
-      <c r="P66" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="R66" t="n">
-        <v>16650</v>
-      </c>
-      <c r="S66" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="T66" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V66" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>0:34</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>4:37:30</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>25</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Le manuel de survie des parents</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Héloïse Junier</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -7885,97 +7885,97 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>476</v>
+        <v>337</v>
       </c>
       <c r="J67" t="n">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="K67" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="L67" t="n">
         <v>100</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q67" t="n">
-        <v>104.2</v>
+        <v>41.1</v>
       </c>
       <c r="R67" t="n">
-        <v>14530</v>
+        <v>16650</v>
       </c>
       <c r="S67" t="n">
-        <v>242.17</v>
+        <v>277.5</v>
       </c>
       <c r="T67" t="n">
-        <v>4.04</v>
+        <v>4.62</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="V67" t="n">
-        <v>60.5</v>
+        <v>34.7</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>1:00</t>
+          <t>0:34</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>4:02:10</t>
+          <t>4:37:30</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z67" s="2" t="n">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Red Rising</t>
+          <t>Le manuel de survie des parents</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pierce Brown</t>
+          <t>Héloïse Junier</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -7995,97 +7995,97 @@
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>636</v>
+        <v>476</v>
       </c>
       <c r="J68" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="K68" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L68" t="n">
         <v>100</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>125</v>
+        <v>104.2</v>
       </c>
       <c r="R68" t="n">
-        <v>26174</v>
+        <v>14530</v>
       </c>
       <c r="S68" t="n">
-        <v>436.23</v>
+        <v>242.17</v>
       </c>
       <c r="T68" t="n">
-        <v>7.27</v>
+        <v>4.04</v>
       </c>
       <c r="U68" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>87.2</v>
+        <v>60.5</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>1:27</t>
+          <t>1:00</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>7:16:14</t>
+          <t>4:02:10</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="Z68" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Il n'y a pas de parent parfait</t>
+          <t>Red Rising</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Isabelle Filliozat</t>
+          <t>Pierce Brown</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -8105,97 +8105,97 @@
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>445</v>
+        <v>636</v>
       </c>
       <c r="J69" t="n">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="K69" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L69" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P69" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>34.6</v>
+        <v>125</v>
       </c>
       <c r="R69" t="n">
-        <v>12721</v>
+        <v>26174</v>
       </c>
       <c r="S69" t="n">
-        <v>212.02</v>
+        <v>436.23</v>
       </c>
       <c r="T69" t="n">
-        <v>3.53</v>
+        <v>7.27</v>
       </c>
       <c r="U69" t="n">
-        <v>0.44</v>
+        <v>1.45</v>
       </c>
       <c r="V69" t="n">
-        <v>26.5</v>
+        <v>87.2</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>0:26</t>
+          <t>1:27</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>3:32:01</t>
+          <t>7:16:14</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z69" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
+          <t>Il n'y a pas de parent parfait</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dan Simmons</t>
+          <t>Isabelle Filliozat</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -8215,87 +8215,87 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>1332</v>
+        <v>445</v>
       </c>
       <c r="J70" t="n">
-        <v>1127</v>
+        <v>277</v>
       </c>
       <c r="K70" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L70" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P70" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q70" t="n">
-        <v>66.3</v>
+        <v>34.6</v>
       </c>
       <c r="R70" t="n">
-        <v>47893</v>
+        <v>12721</v>
       </c>
       <c r="S70" t="n">
-        <v>798.22</v>
+        <v>212.02</v>
       </c>
       <c r="T70" t="n">
-        <v>13.3</v>
+        <v>3.53</v>
       </c>
       <c r="U70" t="n">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="V70" t="n">
-        <v>47</v>
+        <v>26.5</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0:46</t>
+          <t>0:26</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>13:18:13</t>
+          <t>3:32:01</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Z70" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hypérion v1.1</t>
+          <t>La Chute d'Hypérion: Le cycle d'Hypérion - Tome 2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8320,77 +8320,73 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Cantos d'Hypérion </t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>1034</v>
+        <v>1332</v>
       </c>
       <c r="J71" t="n">
-        <v>1007</v>
+        <v>1127</v>
       </c>
       <c r="K71" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L71" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q71" t="n">
-        <v>62.9</v>
+        <v>66.3</v>
       </c>
       <c r="R71" t="n">
-        <v>45693</v>
+        <v>47893</v>
       </c>
       <c r="S71" t="n">
-        <v>761.55</v>
+        <v>798.22</v>
       </c>
       <c r="T71" t="n">
-        <v>12.69</v>
+        <v>13.3</v>
       </c>
       <c r="U71" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="V71" t="n">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>0:47</t>
+          <t>0:46</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>12:41:33</t>
+          <t>13:18:13</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z71" s="2" t="n">
-        <v>45319</v>
+        <v>45344</v>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
@@ -8405,21 +8401,21 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
+          <t>Hypérion v1.1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Michaeleen Doucleff</t>
+          <t>Dan Simmons</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -8429,117 +8425,121 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>non-fiction/parenting</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t xml:space="preserve">Les Cantos d'Hypérion </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>675</v>
+        <v>1034</v>
       </c>
       <c r="J72" t="n">
-        <v>418</v>
+        <v>1007</v>
       </c>
       <c r="K72" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L72" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P72" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q72" t="n">
-        <v>52.2</v>
+        <v>62.9</v>
       </c>
       <c r="R72" t="n">
-        <v>18029</v>
+        <v>45693</v>
       </c>
       <c r="S72" t="n">
-        <v>300.48</v>
+        <v>761.55</v>
       </c>
       <c r="T72" t="n">
-        <v>5.01</v>
+        <v>12.69</v>
       </c>
       <c r="U72" t="n">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="V72" t="n">
-        <v>37.6</v>
+        <v>47.6</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>0:37</t>
+          <t>0:47</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>5:00:29</t>
+          <t>12:41:33</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="Z72" s="2" t="n">
-        <v>45300</v>
+        <v>45319</v>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>non-fiction</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>Chasseur, cueilleur, parent: les cultures ancestrales excellent dans l’art d’élever des humains heureux: qu’ont-elles à nous apprendre?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Michaeleen Doucleff</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>non-fiction/parenting</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -8549,102 +8549,102 @@
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="J73" t="n">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="K73" t="n">
         <v>1.4</v>
       </c>
       <c r="L73" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="O73" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P73" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q73" t="n">
-        <v>28.9</v>
+        <v>52.2</v>
       </c>
       <c r="R73" t="n">
-        <v>12240</v>
+        <v>18029</v>
       </c>
       <c r="S73" t="n">
-        <v>204</v>
+        <v>300.48</v>
       </c>
       <c r="T73" t="n">
-        <v>3.4</v>
+        <v>5.01</v>
       </c>
       <c r="U73" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="V73" t="n">
-        <v>20.4</v>
+        <v>37.6</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:37</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>5:00:29</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="Z73" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>non-fiction</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>parenting</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8659,64 +8659,64 @@
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>809</v>
+        <v>449</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="K74" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>28.9</v>
       </c>
       <c r="R74" t="n">
-        <v>22</v>
+        <v>12240</v>
       </c>
       <c r="S74" t="n">
-        <v>0.37</v>
+        <v>204</v>
       </c>
       <c r="T74" t="n">
-        <v>0.01</v>
+        <v>3.4</v>
       </c>
       <c r="U74" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4</v>
+        <v>20.4</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:20</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>3:24:00</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z74" s="2" t="n">
@@ -8735,26 +8735,26 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Let's Get Together</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Isaac Asimov</t>
+          <t>Van Vogt</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8769,25 +8769,25 @@
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>68</v>
+        <v>809</v>
       </c>
       <c r="J75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="L75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -8797,40 +8797,40 @@
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="S75" t="n">
-        <v>6.47</v>
+        <v>0.37</v>
       </c>
       <c r="T75" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="U75" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="V75" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="Z75" s="2" t="n">
-        <v>45257</v>
+        <v>45299</v>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
@@ -8845,26 +8845,26 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Le crime de l'Orient-Express</t>
+          <t>Let's Get Together</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Christie, Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Christie Agatha</t>
+          <t>Isaac Asimov</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8874,29 +8874,25 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">l'Orient </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="J76" t="n">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8905,42 +8901,42 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>47.1</v>
+        <v>8</v>
       </c>
       <c r="R76" t="n">
-        <v>13191</v>
+        <v>388</v>
       </c>
       <c r="S76" t="n">
-        <v>219.85</v>
+        <v>6.47</v>
       </c>
       <c r="T76" t="n">
-        <v>3.66</v>
+        <v>0.11</v>
       </c>
       <c r="U76" t="n">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="V76" t="n">
-        <v>31.4</v>
+        <v>6.5</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>0:31</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>3:39:51</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="Z76" s="2" t="n">
@@ -8952,6 +8948,120 @@
         </is>
       </c>
       <c r="AB76" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Le crime de l'Orient-Express</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Christie, Agatha</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Christie Agatha</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>fiction/SF</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">l'Orient </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>349</v>
+      </c>
+      <c r="J77" t="n">
+        <v>330</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>7</v>
+      </c>
+      <c r="P77" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>13191</v>
+      </c>
+      <c r="S77" t="n">
+        <v>219.85</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V77" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>0:31</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>3:39:51</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="Z77" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
